--- a/backtest results/Balance.xlsx
+++ b/backtest results/Balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0BEDD-3495-CA48-88AD-E92D01B5A8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFFEA59-4D8B-A347-B177-26B037540681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="3" xr2:uid="{2F6EBC25-3AA2-2041-A9CD-E7098B4FE5BF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="1" xr2:uid="{2F6EBC25-3AA2-2041-A9CD-E7098B4FE5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -19251,7 +19251,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32550,8 +32550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF2A6C8-A2C1-484A-BF6D-0C65771BA618}">
   <dimension ref="B1:AO85"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33850,7 +33850,7 @@
       </c>
       <c r="H36">
         <f>C61</f>
-        <v>131450</v>
+        <v>142926</v>
       </c>
       <c r="L36" s="33"/>
       <c r="N36" s="19">
@@ -33958,7 +33958,7 @@
       </c>
       <c r="J38">
         <f>H36+H37+H38</f>
-        <v>210450</v>
+        <v>221926</v>
       </c>
       <c r="L38" s="33"/>
       <c r="N38" s="19">
@@ -34036,7 +34036,7 @@
       </c>
       <c r="H39">
         <f>SUM(H34:H38)</f>
-        <v>447450</v>
+        <v>458926</v>
       </c>
       <c r="L39" s="33" t="s">
         <v>18</v>
@@ -34372,11 +34372,11 @@
       </c>
       <c r="E49">
         <f>SUM(C49:C53)</f>
-        <v>0</v>
+        <v>11476</v>
       </c>
       <c r="F49" s="19">
         <f>E49*100/D33</f>
-        <v>0</v>
+        <v>5.1693693693693692E-2</v>
       </c>
       <c r="L49" s="33" t="s">
         <v>20</v>
@@ -34426,9 +34426,12 @@
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B50" s="33"/>
+      <c r="C50">
+        <v>-9964</v>
+      </c>
       <c r="D50" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4.4882882882882884E-2</v>
       </c>
       <c r="L50" s="33"/>
       <c r="N50" s="19">
@@ -34448,9 +34451,12 @@
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B51" s="33"/>
+      <c r="C51">
+        <v>17253</v>
+      </c>
       <c r="D51" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.7716216216216216E-2</v>
       </c>
       <c r="L51" s="33"/>
       <c r="N51" s="19">
@@ -34470,9 +34476,12 @@
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B52" s="33"/>
+      <c r="C52">
+        <v>4187</v>
+      </c>
       <c r="D52" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8860360360360359E-2</v>
       </c>
       <c r="L52" s="33"/>
       <c r="N52" s="19">
@@ -34683,7 +34692,7 @@
     <row r="61" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C61">
         <f>SUM(C34:C59)</f>
-        <v>131450</v>
+        <v>142926</v>
       </c>
       <c r="M61">
         <f>SUM(M34:M59)</f>
@@ -34704,7 +34713,7 @@
       </c>
       <c r="C62" s="19">
         <f>C61*100/D$33</f>
-        <v>0.59211711711711712</v>
+        <v>0.64381081081081082</v>
       </c>
       <c r="D62" s="19"/>
       <c r="L62" t="s">
@@ -34738,7 +34747,7 @@
       </c>
       <c r="C63" s="19">
         <f>((C61*100)+(H37*100)+(H38*100))/D$33</f>
-        <v>0.947972972972973</v>
+        <v>0.9996666666666667</v>
       </c>
       <c r="D63" s="19"/>
       <c r="L63" t="s">
@@ -35249,11 +35258,26 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="V2:V6"/>
-    <mergeCell ref="V7:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V17:V21"/>
-    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="AG12:AG16"/>
+    <mergeCell ref="AG17:AG21"/>
+    <mergeCell ref="AG22:AG26"/>
+    <mergeCell ref="AG2:AG6"/>
+    <mergeCell ref="AG7:AG11"/>
+    <mergeCell ref="AG44:AG48"/>
+    <mergeCell ref="AG49:AG53"/>
+    <mergeCell ref="AG54:AG58"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AG39:AG43"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="L22:L26"/>
     <mergeCell ref="V34:V38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B44:B48"/>
@@ -35269,26 +35293,11 @@
     <mergeCell ref="L44:L48"/>
     <mergeCell ref="L49:L53"/>
     <mergeCell ref="L54:L58"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="L22:L26"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="AG44:AG48"/>
-    <mergeCell ref="AG49:AG53"/>
-    <mergeCell ref="AG54:AG58"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AG39:AG43"/>
-    <mergeCell ref="AG12:AG16"/>
-    <mergeCell ref="AG17:AG21"/>
-    <mergeCell ref="AG22:AG26"/>
-    <mergeCell ref="AG2:AG6"/>
-    <mergeCell ref="AG7:AG11"/>
+    <mergeCell ref="V2:V6"/>
+    <mergeCell ref="V7:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V17:V21"/>
+    <mergeCell ref="V22:V26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40089,7 +40098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C6A518-AB51-B248-ACDB-FBFCF1A00C16}">
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
@@ -45060,46 +45069,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AG39:AG43"/>
+    <mergeCell ref="AG44:AG48"/>
+    <mergeCell ref="AG49:AG53"/>
+    <mergeCell ref="AG54:AG58"/>
+    <mergeCell ref="AG2:AG6"/>
+    <mergeCell ref="AG7:AG11"/>
+    <mergeCell ref="AG12:AG16"/>
+    <mergeCell ref="AG17:AG21"/>
+    <mergeCell ref="AG22:AG26"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="W39:W43"/>
+    <mergeCell ref="W44:W48"/>
+    <mergeCell ref="W49:W53"/>
+    <mergeCell ref="W54:W58"/>
+    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="W7:W11"/>
+    <mergeCell ref="W12:W16"/>
+    <mergeCell ref="W17:W21"/>
+    <mergeCell ref="W22:W26"/>
+    <mergeCell ref="M32:M36"/>
+    <mergeCell ref="M37:M41"/>
+    <mergeCell ref="M42:M46"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="M52:M56"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B56"/>
     <mergeCell ref="M17:M21"/>
     <mergeCell ref="M22:M26"/>
     <mergeCell ref="M7:M11"/>
     <mergeCell ref="M12:M16"/>
     <mergeCell ref="M2:M6"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="M32:M36"/>
-    <mergeCell ref="M37:M41"/>
-    <mergeCell ref="M42:M46"/>
-    <mergeCell ref="M47:M51"/>
-    <mergeCell ref="M52:M56"/>
-    <mergeCell ref="W2:W6"/>
-    <mergeCell ref="W7:W11"/>
-    <mergeCell ref="W12:W16"/>
-    <mergeCell ref="W17:W21"/>
-    <mergeCell ref="W22:W26"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="W39:W43"/>
-    <mergeCell ref="W44:W48"/>
-    <mergeCell ref="W49:W53"/>
-    <mergeCell ref="W54:W58"/>
-    <mergeCell ref="AG2:AG6"/>
-    <mergeCell ref="AG7:AG11"/>
-    <mergeCell ref="AG12:AG16"/>
-    <mergeCell ref="AG17:AG21"/>
-    <mergeCell ref="AG22:AG26"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AG39:AG43"/>
-    <mergeCell ref="AG44:AG48"/>
-    <mergeCell ref="AG49:AG53"/>
-    <mergeCell ref="AG54:AG58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backtest results/Balance.xlsx
+++ b/backtest results/Balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D29147-F660-FB41-AF57-101B69AE457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075E3F2B-EBC2-4A4E-8819-07F2CD359400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="1" xr2:uid="{2F6EBC25-3AA2-2041-A9CD-E7098B4FE5BF}"/>
   </bookViews>
@@ -33693,7 +33693,7 @@
   <dimension ref="B1:AO85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/backtest results/Balance.xlsx
+++ b/backtest results/Balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075E3F2B-EBC2-4A4E-8819-07F2CD359400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C72E462-673E-7B46-B3FF-0CDC679D0ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="1" xr2:uid="{2F6EBC25-3AA2-2041-A9CD-E7098B4FE5BF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" activeTab="1" xr2:uid="{2F6EBC25-3AA2-2041-A9CD-E7098B4FE5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="953">
   <si>
     <t>Bond</t>
   </si>
@@ -2904,6 +2904,18 @@
   </si>
   <si>
     <t>(0.3% * 1.2cr loan for example)</t>
+  </si>
+  <si>
+    <t>stamp duty saving for same loan if joint</t>
+  </si>
+  <si>
+    <t>stamp duty saving as compared to 1.30cr</t>
+  </si>
+  <si>
+    <t>extra amount needed on top of loan</t>
+  </si>
+  <si>
+    <t>cash</t>
   </si>
 </sst>
 </file>
@@ -3041,7 +3053,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3076,14 +3088,15 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -19349,7 +19362,7 @@
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19413,21 +19426,18 @@
         <v>15</v>
       </c>
       <c r="B3" s="13">
-        <f>$B$25+$D$25</f>
         <v>668528</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="13">
-        <f>$B$25+$D$25</f>
         <v>668528</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="13">
-        <f>$B$25+$D$25</f>
         <v>668528</v>
       </c>
       <c r="J3" t="s">
@@ -19435,7 +19445,7 @@
       </c>
       <c r="K3" s="13">
         <f>$B$25+$D$25</f>
-        <v>668528</v>
+        <v>729978</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -19598,7 +19608,7 @@
       </c>
       <c r="K9" s="13">
         <f>SUM(K2:K8)</f>
-        <v>15057180.710999999</v>
+        <v>15118630.710999999</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -19924,7 +19934,7 @@
       </c>
       <c r="K21" s="13">
         <f>SUM(K9:K19)-K20-K12-K13-K14</f>
-        <v>12561938.989000002</v>
+        <v>12623388.989000002</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.2">
@@ -19944,7 +19954,7 @@
         <v>126</v>
       </c>
       <c r="B25">
-        <v>473831</v>
+        <v>535281</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
@@ -19954,6 +19964,13 @@
       </c>
       <c r="E25" s="21">
         <v>45251</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4">
+        <f>B25+D25</f>
+        <v>729978</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -20033,7 +20050,7 @@
         <v>1351582</v>
       </c>
       <c r="H30" s="4">
-        <f>(B30-B$29)/(A30-A$29)</f>
+        <f t="shared" ref="H30:H35" si="1">(B30-B$29)/(A30-A$29)</f>
         <v>1956.75</v>
       </c>
     </row>
@@ -20058,7 +20075,7 @@
         <v>1352041</v>
       </c>
       <c r="H31" s="4">
-        <f>(B31-B$29)/(A31-A$29)</f>
+        <f t="shared" si="1"/>
         <v>1919.3333333333333</v>
       </c>
     </row>
@@ -20083,7 +20100,7 @@
         <v>1352964</v>
       </c>
       <c r="H32" s="4">
-        <f>(B32-B$29)/(A32-A$29)</f>
+        <f t="shared" si="1"/>
         <v>1814.6</v>
       </c>
     </row>
@@ -20108,7 +20125,7 @@
         <v>1354406</v>
       </c>
       <c r="H33" s="4">
-        <f>(B33-B$29)/(A33-A$29)</f>
+        <f t="shared" si="1"/>
         <v>1834.75</v>
       </c>
     </row>
@@ -20133,7 +20150,7 @@
         <v>1355633</v>
       </c>
       <c r="H34" s="4">
-        <f>(B34-B$29)/(A34-A$29)</f>
+        <f t="shared" si="1"/>
         <v>1842.5714285714287</v>
       </c>
     </row>
@@ -20158,7 +20175,7 @@
         <v>1357870</v>
       </c>
       <c r="H35" s="4">
-        <f>(B35-B$29)/(A35-A$29)</f>
+        <f t="shared" si="1"/>
         <v>1876.0333333333333</v>
       </c>
       <c r="I35">
@@ -20686,19 +20703,19 @@
         <v>5151139.7410000004</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:D57" si="1">D52</f>
+        <f t="shared" ref="D53:D57" si="2">D52</f>
         <v>910768.39800000004</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E52:E57" si="2">E52</f>
+        <f t="shared" ref="E53:E57" si="3">E52</f>
         <v>3510938.8820000002</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F52:G57" si="3">F52</f>
+        <f t="shared" ref="F53:G57" si="4">F52</f>
         <v>1427820.5619999999</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2519163.8229999999</v>
       </c>
       <c r="H53" s="4"/>
@@ -20716,23 +20733,23 @@
         <v>13519831.405999999</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C52:C57" si="4">C53</f>
+        <f t="shared" ref="C54:C57" si="5">C53</f>
         <v>5151139.7410000004</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>910768.39800000004</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3510938.8820000002</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1427820.5619999999</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2519163.8229999999</v>
       </c>
       <c r="H54" s="4"/>
@@ -20750,23 +20767,23 @@
         <v>13519831.405999999</v>
       </c>
       <c r="C55">
+        <f t="shared" si="5"/>
+        <v>5151139.7410000004</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>910768.39800000004</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>3510938.8820000002</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="4"/>
-        <v>5151139.7410000004</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>910768.39800000004</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="2"/>
-        <v>3510938.8820000002</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="3"/>
         <v>1427820.5619999999</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2519163.8229999999</v>
       </c>
       <c r="H55" s="4"/>
@@ -20784,23 +20801,23 @@
         <v>13519831.405999999</v>
       </c>
       <c r="C56">
+        <f t="shared" si="5"/>
+        <v>5151139.7410000004</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>910768.39800000004</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>3510938.8820000002</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="4"/>
-        <v>5151139.7410000004</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
-        <v>910768.39800000004</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="2"/>
-        <v>3510938.8820000002</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="3"/>
         <v>1427820.5619999999</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2519163.8229999999</v>
       </c>
       <c r="H56" s="4"/>
@@ -20812,23 +20829,23 @@
         <v>13519831.405999999</v>
       </c>
       <c r="C57">
+        <f t="shared" si="5"/>
+        <v>5151139.7410000004</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>910768.39800000004</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>3510938.8820000002</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="4"/>
-        <v>5151139.7410000004</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="1"/>
-        <v>910768.39800000004</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="2"/>
-        <v>3510938.8820000002</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="3"/>
         <v>1427820.5619999999</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2519163.8229999999</v>
       </c>
       <c r="H57" s="4"/>
@@ -31362,7 +31379,7 @@
   <dimension ref="A1:AL46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31453,6 +31470,9 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1786</v>
+      </c>
       <c r="I3">
         <v>1656</v>
       </c>
@@ -31462,7 +31482,7 @@
       <c r="O3" t="s">
         <v>917</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="32">
         <v>4730000</v>
       </c>
       <c r="R3" s="13">
@@ -31474,25 +31494,25 @@
       <c r="T3" t="s">
         <v>917</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3" s="32">
         <v>4730000</v>
       </c>
       <c r="W3" t="s">
         <v>933</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3" s="32">
         <v>7421</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="Y3" s="32">
         <v>84000</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="Z3" s="32">
         <v>0</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AA3" s="32">
         <v>91421</v>
       </c>
-      <c r="AB3" s="34">
+      <c r="AB3" s="32">
         <v>11992579</v>
       </c>
       <c r="AC3" s="12">
@@ -31501,36 +31521,39 @@
       <c r="AE3" t="s">
         <v>933</v>
       </c>
-      <c r="AF3" s="34">
+      <c r="AF3" s="32">
         <v>7421</v>
       </c>
-      <c r="AG3" s="34">
+      <c r="AG3" s="32">
         <v>84000</v>
       </c>
-      <c r="AH3" s="34">
+      <c r="AH3" s="32">
         <v>0</v>
       </c>
-      <c r="AI3" s="34">
+      <c r="AI3" s="32">
         <v>291421</v>
       </c>
-      <c r="AJ3" s="34">
+      <c r="AJ3" s="32">
         <v>11792579</v>
       </c>
       <c r="AK3" s="12">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="AL3" s="34">
+      <c r="AL3" s="32">
         <v>200000</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1902</v>
+      </c>
       <c r="I4">
         <v>42</v>
       </c>
       <c r="O4" t="s">
         <v>918</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="32">
         <v>2850000</v>
       </c>
       <c r="T4" t="s">
@@ -31543,19 +31566,19 @@
       <c r="W4" t="s">
         <v>934</v>
       </c>
-      <c r="X4" s="34">
+      <c r="X4" s="32">
         <v>7472</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4" s="32">
         <v>83948</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="32">
         <v>0</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="32">
         <v>91421</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="32">
         <v>11985107</v>
       </c>
       <c r="AC4" s="12">
@@ -31564,36 +31587,39 @@
       <c r="AE4" t="s">
         <v>934</v>
       </c>
-      <c r="AF4" s="34">
+      <c r="AF4" s="32">
         <v>8872</v>
       </c>
-      <c r="AG4" s="34">
+      <c r="AG4" s="32">
         <v>82548</v>
       </c>
-      <c r="AH4" s="34">
+      <c r="AH4" s="32">
         <v>0</v>
       </c>
-      <c r="AI4" s="34">
+      <c r="AI4" s="32">
         <v>291421</v>
       </c>
-      <c r="AJ4" s="34">
+      <c r="AJ4" s="32">
         <v>11583707</v>
       </c>
       <c r="AK4" s="12">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="AL4" s="34">
+      <c r="AL4" s="32">
         <v>200000</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>510</v>
+      </c>
       <c r="I5">
         <v>1100</v>
       </c>
       <c r="O5" t="s">
         <v>919</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="32">
         <v>9150000</v>
       </c>
       <c r="T5" t="s">
@@ -31606,19 +31632,19 @@
       <c r="W5" t="s">
         <v>914</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="32">
         <v>7525</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5" s="32">
         <v>83896</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5" s="32">
         <v>0</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AA5" s="32">
         <v>91421</v>
       </c>
-      <c r="AB5" s="34">
+      <c r="AB5" s="32">
         <v>11977582</v>
       </c>
       <c r="AC5" s="12">
@@ -31627,25 +31653,25 @@
       <c r="AE5" t="s">
         <v>914</v>
       </c>
-      <c r="AF5" s="34">
+      <c r="AF5" s="32">
         <v>10335</v>
       </c>
-      <c r="AG5" s="34">
+      <c r="AG5" s="32">
         <v>81086</v>
       </c>
-      <c r="AH5" s="34">
+      <c r="AH5" s="32">
         <v>0</v>
       </c>
-      <c r="AI5" s="34">
+      <c r="AI5" s="32">
         <v>291421</v>
       </c>
-      <c r="AJ5" s="34">
+      <c r="AJ5" s="32">
         <v>11373372</v>
       </c>
       <c r="AK5" s="12">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="AL5" s="34">
+      <c r="AL5" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -31656,7 +31682,7 @@
       <c r="O6" t="s">
         <v>920</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="32">
         <v>2799757</v>
       </c>
       <c r="T6" t="s">
@@ -31669,19 +31695,19 @@
       <c r="W6" t="s">
         <v>935</v>
       </c>
-      <c r="X6" s="34">
+      <c r="X6" s="32">
         <v>7577</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6" s="32">
         <v>83843</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="32">
         <v>0</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="AA6" s="32">
         <v>91421</v>
       </c>
-      <c r="AB6" s="34">
+      <c r="AB6" s="32">
         <v>11970005</v>
       </c>
       <c r="AC6" s="12">
@@ -31690,25 +31716,25 @@
       <c r="AE6" t="s">
         <v>935</v>
       </c>
-      <c r="AF6" s="34">
+      <c r="AF6" s="32">
         <v>11807</v>
       </c>
-      <c r="AG6" s="34">
+      <c r="AG6" s="32">
         <v>79614</v>
       </c>
-      <c r="AH6" s="34">
+      <c r="AH6" s="32">
         <v>0</v>
       </c>
-      <c r="AI6" s="34">
+      <c r="AI6" s="32">
         <v>291421</v>
       </c>
-      <c r="AJ6" s="34">
+      <c r="AJ6" s="32">
         <v>11161566</v>
       </c>
       <c r="AK6" s="12">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="AL6" s="34">
+      <c r="AL6" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -31719,7 +31745,7 @@
       <c r="O7" t="s">
         <v>921</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="32">
         <v>0</v>
       </c>
       <c r="T7" t="s">
@@ -31732,19 +31758,19 @@
       <c r="W7" t="s">
         <v>936</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="32">
         <v>7630</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="32">
         <v>83790</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="32">
         <v>0</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="32">
         <v>91421</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="32">
         <v>11962374</v>
       </c>
       <c r="AC7" s="12">
@@ -31753,25 +31779,25 @@
       <c r="AE7" t="s">
         <v>936</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="32">
         <v>13290</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="32">
         <v>78131</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="32">
         <v>0</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="32">
         <v>291421</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="32">
         <v>10948276</v>
       </c>
       <c r="AK7" s="12">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -31782,32 +31808,32 @@
       <c r="O8" t="s">
         <v>922</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="32">
         <v>19529757</v>
       </c>
       <c r="T8" t="s">
         <v>922</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="32">
         <v>18763663</v>
       </c>
       <c r="V8" s="12"/>
       <c r="W8" t="s">
         <v>937</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="32">
         <v>7684</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="32">
         <v>83737</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8" s="32">
         <v>0</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8" s="32">
         <v>91421</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB8" s="32">
         <v>11954690</v>
       </c>
       <c r="AC8" s="12">
@@ -31816,25 +31842,25 @@
       <c r="AE8" t="s">
         <v>937</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF8" s="32">
         <v>14783</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="32">
         <v>76638</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH8" s="32">
         <v>0</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AI8" s="32">
         <v>291421</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ8" s="32">
         <v>10733493</v>
       </c>
       <c r="AK8" s="12">
         <v>0.1055</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AL8" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -31847,19 +31873,19 @@
       <c r="W9" t="s">
         <v>938</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="32">
         <v>7738</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="32">
         <v>83683</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9" s="32">
         <v>0</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="32">
         <v>91421</v>
       </c>
-      <c r="AB9" s="34">
+      <c r="AB9" s="32">
         <v>11946953</v>
       </c>
       <c r="AC9" s="12">
@@ -31868,25 +31894,25 @@
       <c r="AE9" t="s">
         <v>938</v>
       </c>
-      <c r="AF9" s="34">
+      <c r="AF9" s="32">
         <v>16286</v>
       </c>
-      <c r="AG9" s="34">
+      <c r="AG9" s="32">
         <v>75134</v>
       </c>
-      <c r="AH9" s="34">
+      <c r="AH9" s="32">
         <v>0</v>
       </c>
-      <c r="AI9" s="34">
+      <c r="AI9" s="32">
         <v>291421</v>
       </c>
-      <c r="AJ9" s="34">
+      <c r="AJ9" s="32">
         <v>10517207</v>
       </c>
       <c r="AK9" s="12">
         <v>0.1236</v>
       </c>
-      <c r="AL9" s="34">
+      <c r="AL9" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -31900,7 +31926,7 @@
       <c r="O10" t="s">
         <v>917</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="32">
         <v>4730000</v>
       </c>
       <c r="R10" s="13">
@@ -31908,11 +31934,11 @@
       </c>
       <c r="U10" s="25"/>
       <c r="V10" s="12"/>
-      <c r="Y10" s="34">
+      <c r="Y10" s="32">
         <f>SUM(Y3:Y9)</f>
         <v>586897</v>
       </c>
-      <c r="AG10" s="34">
+      <c r="AG10" s="32">
         <f>SUM(AG3:AG9)</f>
         <v>557151</v>
       </c>
@@ -31924,7 +31950,7 @@
       <c r="O11" t="s">
         <v>918</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="32">
         <v>12000000</v>
       </c>
       <c r="U11" s="25"/>
@@ -31937,7 +31963,7 @@
       <c r="O12" t="s">
         <v>919</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="32">
         <v>0</v>
       </c>
       <c r="U12" s="25"/>
@@ -31945,19 +31971,19 @@
       <c r="W12" t="s">
         <v>933</v>
       </c>
-      <c r="X12" s="34">
+      <c r="X12" s="32">
         <v>33466</v>
       </c>
-      <c r="Y12" s="34">
+      <c r="Y12" s="32">
         <v>84000</v>
       </c>
-      <c r="Z12" s="34">
+      <c r="Z12" s="32">
         <v>0</v>
       </c>
-      <c r="AA12" s="34">
+      <c r="AA12" s="32">
         <v>117466</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12" s="32">
         <v>11966534</v>
       </c>
       <c r="AC12" s="12">
@@ -31966,25 +31992,25 @@
       <c r="AE12" t="s">
         <v>933</v>
       </c>
-      <c r="AF12" s="34">
+      <c r="AF12" s="32">
         <v>33466</v>
       </c>
-      <c r="AG12" s="34">
+      <c r="AG12" s="32">
         <v>84000</v>
       </c>
-      <c r="AH12" s="34">
+      <c r="AH12" s="32">
         <v>0</v>
       </c>
-      <c r="AI12" s="34">
+      <c r="AI12" s="32">
         <v>317466</v>
       </c>
-      <c r="AJ12" s="34">
+      <c r="AJ12" s="32">
         <v>11766534</v>
       </c>
       <c r="AK12" s="12">
         <v>1.95E-2</v>
       </c>
-      <c r="AL12" s="34">
+      <c r="AL12" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -31995,7 +32021,7 @@
       <c r="O13" t="s">
         <v>920</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="32">
         <v>20911387</v>
       </c>
       <c r="U13" s="25"/>
@@ -32003,19 +32029,19 @@
       <c r="W13" t="s">
         <v>934</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13" s="32">
         <v>33701</v>
       </c>
-      <c r="Y13" s="34">
+      <c r="Y13" s="32">
         <v>83766</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="Z13" s="32">
         <v>0</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="AA13" s="32">
         <v>117466</v>
       </c>
-      <c r="AB13" s="34">
+      <c r="AB13" s="32">
         <v>11932833</v>
       </c>
       <c r="AC13" s="12">
@@ -32024,25 +32050,25 @@
       <c r="AE13" t="s">
         <v>934</v>
       </c>
-      <c r="AF13" s="34">
+      <c r="AF13" s="32">
         <v>35101</v>
       </c>
-      <c r="AG13" s="34">
+      <c r="AG13" s="32">
         <v>82366</v>
       </c>
-      <c r="AH13" s="34">
+      <c r="AH13" s="32">
         <v>0</v>
       </c>
-      <c r="AI13" s="34">
+      <c r="AI13" s="32">
         <v>317466</v>
       </c>
-      <c r="AJ13" s="34">
+      <c r="AJ13" s="32">
         <v>11531433</v>
       </c>
       <c r="AK13" s="12">
         <v>3.9E-2</v>
       </c>
-      <c r="AL13" s="34">
+      <c r="AL13" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -32056,26 +32082,26 @@
       <c r="O14" t="s">
         <v>921</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="32">
         <v>0</v>
       </c>
       <c r="V14" s="12"/>
       <c r="W14" t="s">
         <v>914</v>
       </c>
-      <c r="X14" s="34">
+      <c r="X14" s="32">
         <v>33937</v>
       </c>
-      <c r="Y14" s="34">
+      <c r="Y14" s="32">
         <v>83530</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="Z14" s="32">
         <v>0</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14" s="32">
         <v>117466</v>
       </c>
-      <c r="AB14" s="34">
+      <c r="AB14" s="32">
         <v>11898896</v>
       </c>
       <c r="AC14" s="12">
@@ -32084,25 +32110,25 @@
       <c r="AE14" t="s">
         <v>914</v>
       </c>
-      <c r="AF14" s="34">
+      <c r="AF14" s="32">
         <v>36746</v>
       </c>
-      <c r="AG14" s="34">
+      <c r="AG14" s="32">
         <v>80720</v>
       </c>
-      <c r="AH14" s="34">
+      <c r="AH14" s="32">
         <v>0</v>
       </c>
-      <c r="AI14" s="34">
+      <c r="AI14" s="32">
         <v>317466</v>
       </c>
-      <c r="AJ14" s="34">
+      <c r="AJ14" s="32">
         <v>11294687</v>
       </c>
       <c r="AK14" s="12">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="AL14" s="34">
+      <c r="AL14" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -32116,7 +32142,7 @@
       <c r="O15" t="s">
         <v>922</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="32">
         <v>37641387</v>
       </c>
       <c r="U15" s="25"/>
@@ -32124,19 +32150,19 @@
       <c r="W15" t="s">
         <v>935</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="32">
         <v>34174</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="32">
         <v>83292</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="32">
         <v>0</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="32">
         <v>117466</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="32">
         <v>11864722</v>
       </c>
       <c r="AC15" s="12">
@@ -32145,25 +32171,25 @@
       <c r="AE15" t="s">
         <v>935</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="32">
         <v>38404</v>
       </c>
-      <c r="AG15" s="34">
+      <c r="AG15" s="32">
         <v>79063</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AH15" s="32">
         <v>0</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="32">
         <v>317466</v>
       </c>
-      <c r="AJ15" s="34">
+      <c r="AJ15" s="32">
         <v>11056283</v>
       </c>
       <c r="AK15" s="12">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -32179,19 +32205,19 @@
       <c r="W16" t="s">
         <v>936</v>
       </c>
-      <c r="X16" s="34">
+      <c r="X16" s="32">
         <v>34413</v>
       </c>
-      <c r="Y16" s="34">
+      <c r="Y16" s="32">
         <v>83053</v>
       </c>
-      <c r="Z16" s="34">
+      <c r="Z16" s="32">
         <v>0</v>
       </c>
-      <c r="AA16" s="34">
+      <c r="AA16" s="32">
         <v>117466</v>
       </c>
-      <c r="AB16" s="34">
+      <c r="AB16" s="32">
         <v>11830309</v>
       </c>
       <c r="AC16" s="12">
@@ -32200,25 +32226,25 @@
       <c r="AE16" t="s">
         <v>936</v>
       </c>
-      <c r="AF16" s="34">
+      <c r="AF16" s="32">
         <v>40072</v>
       </c>
-      <c r="AG16" s="34">
+      <c r="AG16" s="32">
         <v>77394</v>
       </c>
-      <c r="AH16" s="34">
+      <c r="AH16" s="32">
         <v>0</v>
       </c>
-      <c r="AI16" s="34">
+      <c r="AI16" s="32">
         <v>317466</v>
       </c>
-      <c r="AJ16" s="34">
+      <c r="AJ16" s="32">
         <v>10816211</v>
       </c>
       <c r="AK16" s="12">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="AL16" s="34">
+      <c r="AL16" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -32236,7 +32262,7 @@
       <c r="O17" t="s">
         <v>917</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="32">
         <v>4730000</v>
       </c>
       <c r="R17" s="13">
@@ -32248,26 +32274,26 @@
       <c r="T17" t="s">
         <v>917</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17" s="32">
         <v>4730000</v>
       </c>
       <c r="V17" s="12"/>
       <c r="W17" t="s">
         <v>937</v>
       </c>
-      <c r="X17" s="34">
+      <c r="X17" s="32">
         <v>34654</v>
       </c>
-      <c r="Y17" s="34">
+      <c r="Y17" s="32">
         <v>82812</v>
       </c>
-      <c r="Z17" s="34">
+      <c r="Z17" s="32">
         <v>0</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="AA17" s="32">
         <v>117466</v>
       </c>
-      <c r="AB17" s="34">
+      <c r="AB17" s="32">
         <v>11795655</v>
       </c>
       <c r="AC17" s="12">
@@ -32276,25 +32302,25 @@
       <c r="AE17" t="s">
         <v>937</v>
       </c>
-      <c r="AF17" s="34">
+      <c r="AF17" s="32">
         <v>41753</v>
       </c>
-      <c r="AG17" s="34">
+      <c r="AG17" s="32">
         <v>75713</v>
       </c>
-      <c r="AH17" s="34">
+      <c r="AH17" s="32">
         <v>0</v>
       </c>
-      <c r="AI17" s="34">
+      <c r="AI17" s="32">
         <v>317466</v>
       </c>
-      <c r="AJ17" s="34">
+      <c r="AJ17" s="32">
         <v>10574458</v>
       </c>
       <c r="AK17" s="12">
         <v>0.1188</v>
       </c>
-      <c r="AL17" s="34">
+      <c r="AL17" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -32309,32 +32335,32 @@
       <c r="O18" t="s">
         <v>918</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="32">
         <v>3366701</v>
       </c>
       <c r="T18" t="s">
         <v>918</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18" s="32">
         <v>2759514</v>
       </c>
       <c r="V18" s="12"/>
       <c r="W18" t="s">
         <v>938</v>
       </c>
-      <c r="X18" s="34">
+      <c r="X18" s="32">
         <v>34897</v>
       </c>
-      <c r="Y18" s="34">
+      <c r="Y18" s="32">
         <v>82570</v>
       </c>
-      <c r="Z18" s="34">
+      <c r="Z18" s="32">
         <v>0</v>
       </c>
-      <c r="AA18" s="34">
+      <c r="AA18" s="32">
         <v>117466</v>
       </c>
-      <c r="AB18" s="34">
+      <c r="AB18" s="32">
         <v>11760758</v>
       </c>
       <c r="AC18" s="12">
@@ -32343,25 +32369,25 @@
       <c r="AE18" t="s">
         <v>938</v>
       </c>
-      <c r="AF18" s="34">
+      <c r="AF18" s="32">
         <v>43445</v>
       </c>
-      <c r="AG18" s="34">
+      <c r="AG18" s="32">
         <v>74021</v>
       </c>
-      <c r="AH18" s="34">
+      <c r="AH18" s="32">
         <v>0</v>
       </c>
-      <c r="AI18" s="34">
+      <c r="AI18" s="32">
         <v>317466</v>
       </c>
-      <c r="AJ18" s="34">
+      <c r="AJ18" s="32">
         <v>10331012</v>
       </c>
       <c r="AK18" s="12">
         <v>0.1391</v>
       </c>
-      <c r="AL18" s="34">
+      <c r="AL18" s="32">
         <v>200000</v>
       </c>
     </row>
@@ -32372,21 +32398,21 @@
       <c r="O19" t="s">
         <v>919</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="32">
         <v>8633299</v>
       </c>
       <c r="T19" t="s">
         <v>919</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="32">
         <v>9240486</v>
       </c>
       <c r="V19" s="12"/>
-      <c r="Y19" s="34">
+      <c r="Y19" s="32">
         <f>SUM(Y12:Y18)</f>
         <v>583023</v>
       </c>
-      <c r="AG19" s="34">
+      <c r="AG19" s="32">
         <f>SUM(AG12:AG18)</f>
         <v>553277</v>
       </c>
@@ -32401,13 +32427,13 @@
       <c r="O20" t="s">
         <v>920</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="32">
         <v>2629370</v>
       </c>
       <c r="T20" t="s">
         <v>920</v>
       </c>
-      <c r="U20" s="34">
+      <c r="U20" s="32">
         <v>2099371</v>
       </c>
       <c r="V20" s="12"/>
@@ -32419,13 +32445,13 @@
       <c r="O21" t="s">
         <v>921</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="32">
         <v>0</v>
       </c>
       <c r="T21" t="s">
         <v>921</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="32">
         <v>0</v>
       </c>
       <c r="V21" s="12"/>
@@ -32437,13 +32463,13 @@
       <c r="O22" t="s">
         <v>922</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22" s="32">
         <v>19359370</v>
       </c>
       <c r="T22" t="s">
         <v>922</v>
       </c>
-      <c r="U22" s="34">
+      <c r="U22" s="32">
         <v>18829371</v>
       </c>
     </row>
@@ -32462,7 +32488,7 @@
       <c r="O24" t="s">
         <v>917</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="32">
         <v>4730000</v>
       </c>
       <c r="R24" s="13">
@@ -32476,7 +32502,7 @@
       <c r="O25" t="s">
         <v>918</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25" s="32">
         <v>12000000</v>
       </c>
     </row>
@@ -32487,7 +32513,7 @@
       <c r="O26" t="s">
         <v>919</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="32">
         <v>0</v>
       </c>
     </row>
@@ -32498,7 +32524,7 @@
       <c r="O27" t="s">
         <v>920</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="32">
         <v>12811329</v>
       </c>
     </row>
@@ -32509,7 +32535,7 @@
       <c r="O28" t="s">
         <v>921</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="32">
         <v>0</v>
       </c>
     </row>
@@ -32520,7 +32546,7 @@
       <c r="O29" t="s">
         <v>922</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="32">
         <v>29541329</v>
       </c>
     </row>
@@ -32539,7 +32565,7 @@
       <c r="O31" t="s">
         <v>917</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31" s="32">
         <v>4730000</v>
       </c>
       <c r="R31" s="13">
@@ -32550,7 +32576,7 @@
       <c r="O32" t="s">
         <v>918</v>
       </c>
-      <c r="P32" s="34">
+      <c r="P32" s="32">
         <v>4950000</v>
       </c>
     </row>
@@ -32558,7 +32584,7 @@
       <c r="O33" t="s">
         <v>919</v>
       </c>
-      <c r="P33" s="34">
+      <c r="P33" s="32">
         <v>7050000</v>
       </c>
     </row>
@@ -32566,7 +32592,7 @@
       <c r="O34" t="s">
         <v>920</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="32">
         <v>2144432</v>
       </c>
     </row>
@@ -32574,7 +32600,7 @@
       <c r="O35" t="s">
         <v>921</v>
       </c>
-      <c r="P35" s="34">
+      <c r="P35" s="32">
         <v>0</v>
       </c>
     </row>
@@ -32588,7 +32614,7 @@
       <c r="O36" t="s">
         <v>922</v>
       </c>
-      <c r="P36" s="34">
+      <c r="P36" s="32">
         <v>18874432</v>
       </c>
     </row>
@@ -32612,7 +32638,7 @@
       <c r="O38" t="s">
         <v>917</v>
       </c>
-      <c r="P38" s="34">
+      <c r="P38" s="32">
         <v>4730000</v>
       </c>
       <c r="R38" s="13">
@@ -32623,7 +32649,7 @@
       <c r="O39" t="s">
         <v>918</v>
       </c>
-      <c r="P39" s="34">
+      <c r="P39" s="32">
         <v>12000000</v>
       </c>
     </row>
@@ -32631,7 +32657,7 @@
       <c r="O40" t="s">
         <v>919</v>
       </c>
-      <c r="P40" s="34">
+      <c r="P40" s="32">
         <v>0</v>
       </c>
     </row>
@@ -32639,7 +32665,7 @@
       <c r="O41" t="s">
         <v>920</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41" s="32">
         <v>5777016</v>
       </c>
     </row>
@@ -32647,7 +32673,7 @@
       <c r="O42" t="s">
         <v>921</v>
       </c>
-      <c r="P42" s="34">
+      <c r="P42" s="32">
         <v>0</v>
       </c>
     </row>
@@ -32655,17 +32681,17 @@
       <c r="O43" t="s">
         <v>922</v>
       </c>
-      <c r="P43" s="34">
+      <c r="P43" s="32">
         <v>22507016</v>
       </c>
     </row>
     <row r="45" spans="9:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="M45" s="35" t="s">
+      <c r="M45" s="33" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="46" spans="9:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="M46" s="35" t="s">
+      <c r="M46" s="33" t="s">
         <v>932</v>
       </c>
     </row>
@@ -33693,7 +33719,7 @@
   <dimension ref="B1:AO85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33730,7 +33756,7 @@
       </c>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C2">
@@ -33754,7 +33780,7 @@
       <c r="H2">
         <v>172000</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="18">
@@ -33775,7 +33801,7 @@
       <c r="R2">
         <v>172000</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="X2" s="18">
@@ -33796,7 +33822,7 @@
       <c r="AB2">
         <v>172000</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="AI2" s="18">
@@ -33819,7 +33845,7 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3">
         <v>5402</v>
       </c>
@@ -33833,7 +33859,7 @@
       <c r="H3">
         <v>131000</v>
       </c>
-      <c r="L3" s="32"/>
+      <c r="L3" s="35"/>
       <c r="M3">
         <v>13104</v>
       </c>
@@ -33847,7 +33873,7 @@
       <c r="R3">
         <v>70000</v>
       </c>
-      <c r="V3" s="32"/>
+      <c r="V3" s="35"/>
       <c r="X3" s="18">
         <f t="shared" ref="X3:X4" si="2">W3*100/X$1</f>
         <v>0</v>
@@ -33858,7 +33884,7 @@
       <c r="AB3">
         <v>70000</v>
       </c>
-      <c r="AG3" s="32"/>
+      <c r="AG3" s="35"/>
       <c r="AI3" s="18">
         <f t="shared" ref="AI3:AI26" si="3">AH3*100/AI$1</f>
         <v>0</v>
@@ -33871,7 +33897,7 @@
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4">
         <v>11065</v>
       </c>
@@ -33886,7 +33912,7 @@
         <f>C29</f>
         <v>9920</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="35"/>
       <c r="M4">
         <v>-1768</v>
       </c>
@@ -33899,9 +33925,9 @@
       </c>
       <c r="R4">
         <f>M29</f>
-        <v>22421</v>
-      </c>
-      <c r="V4" s="32"/>
+        <v>86723</v>
+      </c>
+      <c r="V4" s="35"/>
       <c r="X4" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -33913,7 +33939,7 @@
         <f>W29</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="32"/>
+      <c r="AG4" s="35"/>
       <c r="AI4" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -33927,7 +33953,7 @@
       </c>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5">
         <v>1364</v>
       </c>
@@ -33941,7 +33967,7 @@
       <c r="H5" s="4">
         <v>138157.92324210031</v>
       </c>
-      <c r="L5" s="32"/>
+      <c r="L5" s="35"/>
       <c r="M5">
         <v>11085</v>
       </c>
@@ -33955,7 +33981,7 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="V5" s="32"/>
+      <c r="V5" s="35"/>
       <c r="X5" s="18">
         <f>W5*100/X$1</f>
         <v>0</v>
@@ -33966,7 +33992,7 @@
       <c r="AB5">
         <v>0</v>
       </c>
-      <c r="AG5" s="32"/>
+      <c r="AG5" s="35"/>
       <c r="AI5" s="18">
         <f>AH5*100/AI$1</f>
         <v>0</v>
@@ -33979,7 +34005,7 @@
       </c>
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6">
         <v>7049</v>
       </c>
@@ -34000,7 +34026,7 @@
         <f>H4+H5+H6</f>
         <v>227077.92324210031</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="35"/>
       <c r="N6" s="18">
         <f t="shared" ref="N6:N26" si="4">M6*100/N$1</f>
         <v>0</v>
@@ -34016,9 +34042,9 @@
       </c>
       <c r="T6">
         <f>R4+R5+R6</f>
-        <v>101421</v>
-      </c>
-      <c r="V6" s="32"/>
+        <v>165723</v>
+      </c>
+      <c r="V6" s="35"/>
       <c r="X6" s="18">
         <f t="shared" ref="X6:X26" si="5">W6*100/X$1</f>
         <v>0</v>
@@ -34036,7 +34062,7 @@
         <f>AB4+AB5+AB6</f>
         <v>79000</v>
       </c>
-      <c r="AG6" s="32"/>
+      <c r="AG6" s="35"/>
       <c r="AI6" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -34056,7 +34082,7 @@
       </c>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C7">
@@ -34081,29 +34107,32 @@
         <f>SUM(H2:H6)</f>
         <v>530077.92324210028</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="35" t="s">
         <v>18</v>
+      </c>
+      <c r="M7">
+        <v>1330</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.9909909909909914E-3</v>
       </c>
       <c r="O7">
         <f>SUM(M7:M11)</f>
-        <v>0</v>
+        <v>26892</v>
       </c>
       <c r="P7" s="18">
         <f>O7*100/N1</f>
-        <v>0</v>
+        <v>0.12113513513513513</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
       </c>
       <c r="R7">
         <f>SUM(R2:R6)</f>
-        <v>343421</v>
-      </c>
-      <c r="V7" s="32" t="s">
+        <v>407723</v>
+      </c>
+      <c r="V7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="X7" s="18">
@@ -34125,7 +34154,7 @@
         <f>SUM(AB2:AB6)</f>
         <v>321000</v>
       </c>
-      <c r="AG7" s="32" t="s">
+      <c r="AG7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="AI7" s="18">
@@ -34149,7 +34178,7 @@
       </c>
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8">
         <v>1135</v>
       </c>
@@ -34158,19 +34187,19 @@
         <v>5.1126126126126124E-3</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="L8" s="32"/>
+      <c r="L8" s="35"/>
       <c r="N8" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="V8" s="32"/>
+      <c r="V8" s="35"/>
       <c r="X8" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB8" s="4"/>
-      <c r="AG8" s="32"/>
+      <c r="AG8" s="35"/>
       <c r="AI8" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -34178,7 +34207,7 @@
       <c r="AM8" s="4"/>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9">
         <v>27760</v>
       </c>
@@ -34187,19 +34216,22 @@
         <v>0.12504504504504504</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="L9" s="32"/>
+      <c r="L9" s="35"/>
+      <c r="M9">
+        <v>25562</v>
+      </c>
       <c r="N9" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.11514414414414414</v>
       </c>
       <c r="R9" s="11"/>
-      <c r="V9" s="32"/>
+      <c r="V9" s="35"/>
       <c r="X9" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB9" s="11"/>
-      <c r="AG9" s="32"/>
+      <c r="AG9" s="35"/>
       <c r="AI9" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -34207,29 +34239,29 @@
       <c r="AM9" s="11"/>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="32"/>
+      <c r="L10" s="35"/>
       <c r="N10" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V10" s="32"/>
+      <c r="V10" s="35"/>
       <c r="X10" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="32"/>
+      <c r="AG10" s="35"/>
       <c r="AI10" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11">
         <v>-85944</v>
       </c>
@@ -34237,24 +34269,24 @@
         <f t="shared" si="0"/>
         <v>-0.38713513513513514</v>
       </c>
-      <c r="L11" s="32"/>
+      <c r="L11" s="35"/>
       <c r="N11" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11" s="32"/>
+      <c r="V11" s="35"/>
       <c r="X11" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="32"/>
+      <c r="AG11" s="35"/>
       <c r="AI11" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C12">
@@ -34272,22 +34304,25 @@
         <f>E12*100/D1</f>
         <v>5.2355855855855858E-2</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="35" t="s">
         <v>19</v>
+      </c>
+      <c r="M12">
+        <v>10075</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5382882882882884E-2</v>
       </c>
       <c r="O12">
         <f>SUM(M12:M16)</f>
-        <v>0</v>
+        <v>37410</v>
       </c>
       <c r="P12" s="18">
         <f>O12*100/N1</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="32" t="s">
+        <v>0.16851351351351351</v>
+      </c>
+      <c r="V12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="X12" s="18">
@@ -34302,7 +34337,7 @@
         <f>Y12*100/X1</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="32" t="s">
+      <c r="AG12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AI12" s="18">
@@ -34319,7 +34354,7 @@
       </c>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13">
         <v>18486</v>
       </c>
@@ -34327,46 +34362,52 @@
         <f t="shared" si="0"/>
         <v>8.3270270270270272E-2</v>
       </c>
-      <c r="L13" s="32"/>
+      <c r="L13" s="35"/>
+      <c r="M13">
+        <v>16088</v>
+      </c>
       <c r="N13" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="32"/>
+        <v>7.2468468468468467E-2</v>
+      </c>
+      <c r="V13" s="35"/>
       <c r="X13" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="32"/>
+      <c r="AG13" s="35"/>
       <c r="AI13" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="32"/>
+      <c r="L14" s="35"/>
+      <c r="M14">
+        <v>4952</v>
+      </c>
       <c r="N14" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="32"/>
+        <v>2.2306306306306305E-2</v>
+      </c>
+      <c r="V14" s="35"/>
       <c r="X14" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="32"/>
+      <c r="AG14" s="35"/>
       <c r="AI14" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15">
         <v>-7607</v>
       </c>
@@ -34374,24 +34415,27 @@
         <f t="shared" si="0"/>
         <v>-3.4265765765765767E-2</v>
       </c>
-      <c r="L15" s="32"/>
+      <c r="L15" s="35"/>
+      <c r="M15">
+        <v>6295</v>
+      </c>
       <c r="N15" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="32"/>
+        <v>2.8355855855855854E-2</v>
+      </c>
+      <c r="V15" s="35"/>
       <c r="X15" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="32"/>
+      <c r="AG15" s="35"/>
       <c r="AI15" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16">
         <v>-284</v>
       </c>
@@ -34399,24 +34443,24 @@
         <f t="shared" si="0"/>
         <v>-1.2792792792792793E-3</v>
       </c>
-      <c r="L16" s="32"/>
+      <c r="L16" s="35"/>
       <c r="N16" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V16" s="32"/>
+      <c r="V16" s="35"/>
       <c r="X16" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="32"/>
+      <c r="AG16" s="35"/>
       <c r="AI16" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -34435,7 +34479,7 @@
         <f>E17*100/D1</f>
         <v>1.7252252252252251E-3</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="35" t="s">
         <v>20</v>
       </c>
       <c r="N17" s="18">
@@ -34450,7 +34494,7 @@
         <f>O17*100/N1</f>
         <v>0</v>
       </c>
-      <c r="V17" s="32" t="s">
+      <c r="V17" s="35" t="s">
         <v>20</v>
       </c>
       <c r="X17" s="18">
@@ -34465,7 +34509,7 @@
         <f>Y17*100/X1</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="32" t="s">
+      <c r="AG17" s="35" t="s">
         <v>20</v>
       </c>
       <c r="AI17" s="18">
@@ -34482,7 +34526,7 @@
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="C18">
         <v>6364</v>
       </c>
@@ -34490,24 +34534,24 @@
         <f t="shared" si="0"/>
         <v>2.8666666666666667E-2</v>
       </c>
-      <c r="L18" s="32"/>
+      <c r="L18" s="35"/>
       <c r="N18" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V18" s="32"/>
+      <c r="V18" s="35"/>
       <c r="X18" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="32"/>
+      <c r="AG18" s="35"/>
       <c r="AI18" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19">
         <v>13823</v>
       </c>
@@ -34515,68 +34559,68 @@
         <f t="shared" si="0"/>
         <v>6.2265765765765764E-2</v>
       </c>
-      <c r="L19" s="32"/>
+      <c r="L19" s="35"/>
       <c r="N19" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V19" s="32"/>
+      <c r="V19" s="35"/>
       <c r="X19" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="32"/>
+      <c r="AG19" s="35"/>
       <c r="AI19" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="35"/>
       <c r="N20" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V20" s="32"/>
+      <c r="V20" s="35"/>
       <c r="X20" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="32"/>
+      <c r="AG20" s="35"/>
       <c r="AI20" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="32"/>
+      <c r="L21" s="35"/>
       <c r="N21" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V21" s="32"/>
+      <c r="V21" s="35"/>
       <c r="X21" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="32"/>
+      <c r="AG21" s="35"/>
       <c r="AI21" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="18">
@@ -34591,7 +34635,7 @@
         <f>E22*100/D1</f>
         <v>7.6279279279279286E-2</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="35" t="s">
         <v>21</v>
       </c>
       <c r="N22" s="18">
@@ -34606,7 +34650,7 @@
         <f>O22*100/N1</f>
         <v>0</v>
       </c>
-      <c r="V22" s="32" t="s">
+      <c r="V22" s="35" t="s">
         <v>21</v>
       </c>
       <c r="X22" s="18">
@@ -34621,7 +34665,7 @@
         <f>Y22*100/X1</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="32" t="s">
+      <c r="AG22" s="35" t="s">
         <v>21</v>
       </c>
       <c r="AI22" s="18">
@@ -34638,7 +34682,7 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23">
         <v>16934</v>
       </c>
@@ -34646,83 +34690,83 @@
         <f t="shared" si="0"/>
         <v>7.6279279279279286E-2</v>
       </c>
-      <c r="L23" s="32"/>
+      <c r="L23" s="35"/>
       <c r="N23" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V23" s="32"/>
+      <c r="V23" s="35"/>
       <c r="X23" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="32"/>
+      <c r="AG23" s="35"/>
       <c r="AI23" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="D24" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="32"/>
+      <c r="L24" s="35"/>
       <c r="N24" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V24" s="32"/>
+      <c r="V24" s="35"/>
       <c r="X24" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="32"/>
+      <c r="AG24" s="35"/>
       <c r="AI24" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="D25" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="32"/>
+      <c r="L25" s="35"/>
       <c r="N25" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V25" s="32"/>
+      <c r="V25" s="35"/>
       <c r="X25" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="32"/>
+      <c r="AG25" s="35"/>
       <c r="AI25" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="32"/>
+      <c r="L26" s="35"/>
       <c r="N26" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V26" s="32"/>
+      <c r="V26" s="35"/>
       <c r="X26" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="32"/>
+      <c r="AG26" s="35"/>
       <c r="AI26" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -34753,7 +34797,7 @@
       </c>
       <c r="M29">
         <f>SUM(M2:M27)</f>
-        <v>22421</v>
+        <v>86723</v>
       </c>
       <c r="W29">
         <f>SUM(W2:W27)</f>
@@ -34778,7 +34822,7 @@
       </c>
       <c r="M30" s="18">
         <f>M29*100/N$1</f>
-        <v>0.1009954954954955</v>
+        <v>0.39064414414414417</v>
       </c>
       <c r="N30" s="18"/>
       <c r="V30" t="s">
@@ -34812,7 +34856,7 @@
       </c>
       <c r="M31" s="18">
         <f>((M29*100)+(R5*100)+(R6*100))/N$1</f>
-        <v>0.45685135135135135</v>
+        <v>0.74650000000000005</v>
       </c>
       <c r="N31" s="18"/>
       <c r="V31" t="s">
@@ -34859,7 +34903,7 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="18">
@@ -34880,7 +34924,7 @@
       <c r="H34">
         <v>172000</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="35" t="s">
         <v>17</v>
       </c>
       <c r="N34" s="18">
@@ -34901,7 +34945,7 @@
       <c r="R34">
         <v>172000</v>
       </c>
-      <c r="V34" s="32" t="s">
+      <c r="V34" s="35" t="s">
         <v>17</v>
       </c>
       <c r="X34" s="18">
@@ -34922,7 +34966,7 @@
       <c r="AB34">
         <v>172000</v>
       </c>
-      <c r="AG34" s="32" t="s">
+      <c r="AG34" s="35" t="s">
         <v>17</v>
       </c>
       <c r="AI34" s="18">
@@ -34945,7 +34989,7 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
+      <c r="B35" s="35"/>
       <c r="D35" s="18">
         <f t="shared" ref="D35:D58" si="6">C35*100/D$33</f>
         <v>0</v>
@@ -34956,7 +35000,7 @@
       <c r="H35">
         <v>70000</v>
       </c>
-      <c r="L35" s="32"/>
+      <c r="L35" s="35"/>
       <c r="N35" s="18">
         <f t="shared" ref="N35:N58" si="7">M35*100/N$33</f>
         <v>0</v>
@@ -34967,7 +35011,7 @@
       <c r="R35">
         <v>70000</v>
       </c>
-      <c r="V35" s="32"/>
+      <c r="V35" s="35"/>
       <c r="X35" s="18">
         <f t="shared" ref="X35:X58" si="8">W35*100/X$33</f>
         <v>0</v>
@@ -34978,7 +35022,7 @@
       <c r="AB35">
         <v>70000</v>
       </c>
-      <c r="AG35" s="32"/>
+      <c r="AG35" s="35"/>
       <c r="AI35" s="18">
         <f t="shared" ref="AI35:AI58" si="9">AH35*100/AI$33</f>
         <v>0</v>
@@ -34991,7 +35035,7 @@
       </c>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B36" s="32"/>
+      <c r="B36" s="35"/>
       <c r="D36" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -35003,7 +35047,7 @@
         <f>C61</f>
         <v>205902</v>
       </c>
-      <c r="L36" s="32"/>
+      <c r="L36" s="35"/>
       <c r="N36" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -35015,7 +35059,7 @@
         <f>M61</f>
         <v>0</v>
       </c>
-      <c r="V36" s="32"/>
+      <c r="V36" s="35"/>
       <c r="X36" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -35027,7 +35071,7 @@
         <f>W61</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="32"/>
+      <c r="AG36" s="35"/>
       <c r="AI36" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -35041,7 +35085,7 @@
       </c>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B37" s="32"/>
+      <c r="B37" s="35"/>
       <c r="C37">
         <v>3540</v>
       </c>
@@ -35055,7 +35099,7 @@
       <c r="H37" s="4">
         <v>5693.9473929993028</v>
       </c>
-      <c r="L37" s="32"/>
+      <c r="L37" s="35"/>
       <c r="N37" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -35066,7 +35110,7 @@
       <c r="R37">
         <v>0</v>
       </c>
-      <c r="V37" s="32"/>
+      <c r="V37" s="35"/>
       <c r="X37" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -35077,7 +35121,7 @@
       <c r="AB37">
         <v>0</v>
       </c>
-      <c r="AG37" s="32"/>
+      <c r="AG37" s="35"/>
       <c r="AI37" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -35090,7 +35134,7 @@
       </c>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B38" s="32"/>
+      <c r="B38" s="35"/>
       <c r="C38">
         <v>1653</v>
       </c>
@@ -35111,7 +35155,7 @@
         <f>H36+H37+H38</f>
         <v>291595.94739299931</v>
       </c>
-      <c r="L38" s="32"/>
+      <c r="L38" s="35"/>
       <c r="N38" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -35129,7 +35173,7 @@
         <f>R36+R37+R38</f>
         <v>79000</v>
       </c>
-      <c r="V38" s="32"/>
+      <c r="V38" s="35"/>
       <c r="X38" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -35147,7 +35191,7 @@
         <f>AB36+AB37+AB38</f>
         <v>79000</v>
       </c>
-      <c r="AG38" s="32"/>
+      <c r="AG38" s="35"/>
       <c r="AI38" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -35167,7 +35211,7 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="18">
@@ -35189,7 +35233,7 @@
         <f>SUM(H34:H38)</f>
         <v>533595.94739299931</v>
       </c>
-      <c r="L39" s="32" t="s">
+      <c r="L39" s="35" t="s">
         <v>18</v>
       </c>
       <c r="N39" s="18">
@@ -35211,7 +35255,7 @@
         <f>SUM(R34:R38)</f>
         <v>321000</v>
       </c>
-      <c r="V39" s="32" t="s">
+      <c r="V39" s="35" t="s">
         <v>18</v>
       </c>
       <c r="X39" s="18">
@@ -35233,7 +35277,7 @@
         <f>SUM(AB34:AB38)</f>
         <v>321000</v>
       </c>
-      <c r="AG39" s="32" t="s">
+      <c r="AG39" s="35" t="s">
         <v>18</v>
       </c>
       <c r="AI39" s="18">
@@ -35257,29 +35301,29 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
+      <c r="B40" s="35"/>
       <c r="D40" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L40" s="32"/>
+      <c r="L40" s="35"/>
       <c r="N40" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V40" s="32"/>
+      <c r="V40" s="35"/>
       <c r="X40" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG40" s="32"/>
+      <c r="AG40" s="35"/>
       <c r="AI40" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B41" s="32"/>
+      <c r="B41" s="35"/>
       <c r="C41">
         <v>92350</v>
       </c>
@@ -35288,19 +35332,19 @@
         <v>0.41599099099099102</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="L41" s="32"/>
+      <c r="L41" s="35"/>
       <c r="N41" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R41" s="11"/>
-      <c r="V41" s="32"/>
+      <c r="V41" s="35"/>
       <c r="X41" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB41" s="11"/>
-      <c r="AG41" s="32"/>
+      <c r="AG41" s="35"/>
       <c r="AI41" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -35308,7 +35352,7 @@
       <c r="AM41" s="11"/>
     </row>
     <row r="42" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42">
         <v>4280</v>
       </c>
@@ -35316,46 +35360,46 @@
         <f t="shared" si="6"/>
         <v>1.927927927927928E-2</v>
       </c>
-      <c r="L42" s="32"/>
+      <c r="L42" s="35"/>
       <c r="N42" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V42" s="32"/>
+      <c r="V42" s="35"/>
       <c r="X42" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG42" s="32"/>
+      <c r="AG42" s="35"/>
       <c r="AI42" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B43" s="32"/>
+      <c r="B43" s="35"/>
       <c r="D43" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L43" s="32"/>
+      <c r="L43" s="35"/>
       <c r="N43" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V43" s="32"/>
+      <c r="V43" s="35"/>
       <c r="X43" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG43" s="32"/>
+      <c r="AG43" s="35"/>
       <c r="AI43" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="18">
@@ -35370,7 +35414,7 @@
         <f>E44*100/D33</f>
         <v>0.13345495495495496</v>
       </c>
-      <c r="L44" s="32" t="s">
+      <c r="L44" s="35" t="s">
         <v>19</v>
       </c>
       <c r="N44" s="18">
@@ -35385,7 +35429,7 @@
         <f>O44*100/N33</f>
         <v>0</v>
       </c>
-      <c r="V44" s="32" t="s">
+      <c r="V44" s="35" t="s">
         <v>19</v>
       </c>
       <c r="X44" s="18">
@@ -35400,7 +35444,7 @@
         <f>Y44*100/X33</f>
         <v>0</v>
       </c>
-      <c r="AG44" s="32" t="s">
+      <c r="AG44" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AI44" s="18">
@@ -35417,7 +35461,7 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="32"/>
+      <c r="B45" s="35"/>
       <c r="C45">
         <v>15387</v>
       </c>
@@ -35425,24 +35469,24 @@
         <f t="shared" si="6"/>
         <v>6.9310810810810808E-2</v>
       </c>
-      <c r="L45" s="32"/>
+      <c r="L45" s="35"/>
       <c r="N45" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V45" s="32"/>
+      <c r="V45" s="35"/>
       <c r="X45" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG45" s="32"/>
+      <c r="AG45" s="35"/>
       <c r="AI45" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="32"/>
+      <c r="B46" s="35"/>
       <c r="C46">
         <v>6591</v>
       </c>
@@ -35450,24 +35494,24 @@
         <f t="shared" si="6"/>
         <v>2.968918918918919E-2</v>
       </c>
-      <c r="L46" s="32"/>
+      <c r="L46" s="35"/>
       <c r="N46" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V46" s="32"/>
+      <c r="V46" s="35"/>
       <c r="X46" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG46" s="32"/>
+      <c r="AG46" s="35"/>
       <c r="AI46" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B47" s="32"/>
+      <c r="B47" s="35"/>
       <c r="C47">
         <v>7649</v>
       </c>
@@ -35475,46 +35519,46 @@
         <f t="shared" si="6"/>
         <v>3.4454954954954958E-2</v>
       </c>
-      <c r="L47" s="32"/>
+      <c r="L47" s="35"/>
       <c r="N47" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V47" s="32"/>
+      <c r="V47" s="35"/>
       <c r="X47" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG47" s="32"/>
+      <c r="AG47" s="35"/>
       <c r="AI47" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="32"/>
+      <c r="B48" s="35"/>
       <c r="D48" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L48" s="32"/>
+      <c r="L48" s="35"/>
       <c r="N48" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V48" s="32"/>
+      <c r="V48" s="35"/>
       <c r="X48" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG48" s="32"/>
+      <c r="AG48" s="35"/>
       <c r="AI48" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="18">
@@ -35529,7 +35573,7 @@
         <f>E49*100/D33</f>
         <v>5.1693693693693692E-2</v>
       </c>
-      <c r="L49" s="32" t="s">
+      <c r="L49" s="35" t="s">
         <v>20</v>
       </c>
       <c r="N49" s="18">
@@ -35544,7 +35588,7 @@
         <f>O49*100/N33</f>
         <v>0</v>
       </c>
-      <c r="V49" s="32" t="s">
+      <c r="V49" s="35" t="s">
         <v>20</v>
       </c>
       <c r="X49" s="18">
@@ -35559,7 +35603,7 @@
         <f>Y49*100/X33</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="32" t="s">
+      <c r="AG49" s="35" t="s">
         <v>20</v>
       </c>
       <c r="AI49" s="18">
@@ -35576,7 +35620,7 @@
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B50" s="32"/>
+      <c r="B50" s="35"/>
       <c r="C50">
         <v>-9964</v>
       </c>
@@ -35584,24 +35628,24 @@
         <f t="shared" si="6"/>
         <v>-4.4882882882882884E-2</v>
       </c>
-      <c r="L50" s="32"/>
+      <c r="L50" s="35"/>
       <c r="N50" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V50" s="32"/>
+      <c r="V50" s="35"/>
       <c r="X50" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG50" s="32"/>
+      <c r="AG50" s="35"/>
       <c r="AI50" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B51" s="32"/>
+      <c r="B51" s="35"/>
       <c r="C51">
         <v>17253</v>
       </c>
@@ -35609,24 +35653,24 @@
         <f t="shared" si="6"/>
         <v>7.7716216216216216E-2</v>
       </c>
-      <c r="L51" s="32"/>
+      <c r="L51" s="35"/>
       <c r="N51" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V51" s="32"/>
+      <c r="V51" s="35"/>
       <c r="X51" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG51" s="32"/>
+      <c r="AG51" s="35"/>
       <c r="AI51" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B52" s="32"/>
+      <c r="B52" s="35"/>
       <c r="C52">
         <v>4187</v>
       </c>
@@ -35634,46 +35678,46 @@
         <f t="shared" si="6"/>
         <v>1.8860360360360359E-2</v>
       </c>
-      <c r="L52" s="32"/>
+      <c r="L52" s="35"/>
       <c r="N52" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V52" s="32"/>
+      <c r="V52" s="35"/>
       <c r="X52" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG52" s="32"/>
+      <c r="AG52" s="35"/>
       <c r="AI52" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B53" s="32"/>
+      <c r="B53" s="35"/>
       <c r="D53" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L53" s="32"/>
+      <c r="L53" s="35"/>
       <c r="N53" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V53" s="32"/>
+      <c r="V53" s="35"/>
       <c r="X53" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="32"/>
+      <c r="AG53" s="35"/>
       <c r="AI53" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="18">
@@ -35688,7 +35732,7 @@
         <f>E54*100/D33</f>
         <v>0.2836756756756757</v>
       </c>
-      <c r="L54" s="32" t="s">
+      <c r="L54" s="35" t="s">
         <v>21</v>
       </c>
       <c r="N54" s="18">
@@ -35703,7 +35747,7 @@
         <f>O54*100/N33</f>
         <v>0</v>
       </c>
-      <c r="V54" s="32" t="s">
+      <c r="V54" s="35" t="s">
         <v>21</v>
       </c>
       <c r="X54" s="18">
@@ -35718,7 +35762,7 @@
         <f>Y54*100/X33</f>
         <v>0</v>
       </c>
-      <c r="AG54" s="32" t="s">
+      <c r="AG54" s="35" t="s">
         <v>21</v>
       </c>
       <c r="AI54" s="18">
@@ -35735,29 +35779,29 @@
       </c>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B55" s="32"/>
+      <c r="B55" s="35"/>
       <c r="D55" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L55" s="32"/>
+      <c r="L55" s="35"/>
       <c r="N55" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V55" s="32"/>
+      <c r="V55" s="35"/>
       <c r="X55" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG55" s="32"/>
+      <c r="AG55" s="35"/>
       <c r="AI55" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B56" s="32"/>
+      <c r="B56" s="35"/>
       <c r="C56">
         <v>21350</v>
       </c>
@@ -35765,24 +35809,24 @@
         <f t="shared" si="6"/>
         <v>9.6171171171171174E-2</v>
       </c>
-      <c r="L56" s="32"/>
+      <c r="L56" s="35"/>
       <c r="N56" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V56" s="32"/>
+      <c r="V56" s="35"/>
       <c r="X56" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG56" s="32"/>
+      <c r="AG56" s="35"/>
       <c r="AI56" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B57" s="32"/>
+      <c r="B57" s="35"/>
       <c r="C57">
         <v>41626</v>
       </c>
@@ -35790,39 +35834,63 @@
         <f t="shared" si="6"/>
         <v>0.18750450450450451</v>
       </c>
-      <c r="L57" s="32"/>
+      <c r="G57">
+        <v>13000000</v>
+      </c>
+      <c r="H57" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I57">
+        <f>G57*H57</f>
+        <v>910000.00000000012</v>
+      </c>
+      <c r="L57" s="35"/>
       <c r="N57" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V57" s="32"/>
+      <c r="V57" s="35"/>
       <c r="X57" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG57" s="32"/>
+      <c r="AG57" s="35"/>
       <c r="AI57" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B58" s="32"/>
+      <c r="B58" s="35"/>
       <c r="D58" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L58" s="32"/>
+      <c r="G58">
+        <v>13000000</v>
+      </c>
+      <c r="H58" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I58">
+        <f>G58*H58</f>
+        <v>845000</v>
+      </c>
+      <c r="J58">
+        <f>I57-I58</f>
+        <v>65000.000000000116</v>
+      </c>
+      <c r="L58" s="35"/>
       <c r="N58" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V58" s="32"/>
+      <c r="V58" s="35"/>
       <c r="X58" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG58" s="32"/>
+      <c r="AG58" s="35"/>
       <c r="AI58" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -35846,11 +35914,38 @@
       <c r="AK59" s="12"/>
       <c r="AL59" s="12"/>
     </row>
+    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>15500000</v>
+      </c>
+      <c r="H60">
+        <f>I57</f>
+        <v>910000.00000000012</v>
+      </c>
+      <c r="I60">
+        <f>G60+H60+165000+100000</f>
+        <v>16675000</v>
+      </c>
+      <c r="J60">
+        <f>I60-G57</f>
+        <v>3675000</v>
+      </c>
+      <c r="K60" t="s">
+        <v>951</v>
+      </c>
+    </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C61">
         <f>SUM(C34:C59)</f>
         <v>205902</v>
       </c>
+      <c r="F61" t="s">
+        <v>952</v>
+      </c>
+      <c r="G61">
+        <f>G60-G57</f>
+        <v>2500000</v>
+      </c>
       <c r="M61">
         <f>SUM(M34:M59)</f>
         <v>0</v>
@@ -35873,6 +35968,7 @@
         <v>0.92748648648648646</v>
       </c>
       <c r="D62" s="18"/>
+      <c r="H62" s="6"/>
       <c r="L62" t="s">
         <v>113</v>
       </c>
@@ -35907,6 +36003,20 @@
         <v>1.3134952585270239</v>
       </c>
       <c r="D63" s="18"/>
+      <c r="G63">
+        <v>12000000</v>
+      </c>
+      <c r="H63" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I63">
+        <f>G63*H63</f>
+        <v>840000.00000000012</v>
+      </c>
+      <c r="J63">
+        <f>I57-I63</f>
+        <v>70000</v>
+      </c>
       <c r="L63" t="s">
         <v>180</v>
       </c>
@@ -35933,14 +36043,44 @@
       <c r="AI63" s="18"/>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="I64" s="4"/>
+      <c r="G64">
+        <v>12000000</v>
+      </c>
+      <c r="H64" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ref="I64" si="10">G64*H64</f>
+        <v>780000</v>
+      </c>
+      <c r="J64">
+        <f>I63-I64</f>
+        <v>60000.000000000116</v>
+      </c>
       <c r="R64" s="7"/>
       <c r="S64" s="6"/>
     </row>
-    <row r="65" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:35" x14ac:dyDescent="0.2">
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:35" x14ac:dyDescent="0.2">
+      <c r="G66" s="15">
+        <v>11000000</v>
+      </c>
+      <c r="H66" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I66" s="15">
+        <f>G66*H66</f>
+        <v>770000.00000000012</v>
+      </c>
+      <c r="J66" s="15">
+        <f>I57-I66</f>
+        <v>140000</v>
+      </c>
+      <c r="K66" t="s">
+        <v>950</v>
+      </c>
       <c r="W66" t="s">
         <v>149</v>
       </c>
@@ -35948,7 +36088,24 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="67" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:35" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>11000000</v>
+      </c>
+      <c r="H67" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67" si="11">G67*H67</f>
+        <v>715000</v>
+      </c>
+      <c r="J67">
+        <f>I66-I67</f>
+        <v>55000.000000000116</v>
+      </c>
+      <c r="K67" t="s">
+        <v>949</v>
+      </c>
       <c r="W67" t="s">
         <v>37</v>
       </c>
@@ -35959,7 +36116,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="68" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:35" x14ac:dyDescent="0.2">
       <c r="W68" s="12">
         <v>1E-3</v>
       </c>
@@ -35977,7 +36134,25 @@
       </c>
       <c r="AI68" s="4"/>
     </row>
-    <row r="69" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:35" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>15500000</v>
+      </c>
+      <c r="H69">
+        <f>I66</f>
+        <v>770000.00000000012</v>
+      </c>
+      <c r="I69">
+        <f>G69+H69+165000+100000</f>
+        <v>16535000</v>
+      </c>
+      <c r="J69">
+        <f>I69-G66</f>
+        <v>5535000</v>
+      </c>
+      <c r="K69" t="s">
+        <v>951</v>
+      </c>
       <c r="Q69" t="s">
         <v>145</v>
       </c>
@@ -36036,7 +36211,14 @@
         <v>337.28808941109543</v>
       </c>
     </row>
-    <row r="70" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:35" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>952</v>
+      </c>
+      <c r="G70">
+        <f>G69-G66</f>
+        <v>4500000</v>
+      </c>
       <c r="Q70">
         <v>4</v>
       </c>
@@ -36044,11 +36226,11 @@
         <v>75</v>
       </c>
       <c r="S70" s="23">
-        <f t="shared" ref="S70:S75" si="10">T70/R70</f>
+        <f t="shared" ref="S70:S75" si="12">T70/R70</f>
         <v>42</v>
       </c>
       <c r="T70" s="23">
-        <f t="shared" ref="T70:T75" si="11">U70/Q70</f>
+        <f t="shared" ref="T70:T75" si="13">U70/Q70</f>
         <v>3150</v>
       </c>
       <c r="U70" s="23">
@@ -36076,18 +36258,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="71" spans="8:35" x14ac:dyDescent="0.2">
-      <c r="J71">
-        <f>M71-M75</f>
-        <v>-105</v>
-      </c>
-      <c r="L71">
-        <v>900</v>
-      </c>
-      <c r="M71">
-        <f>L71+L72+L73</f>
-        <v>2325</v>
-      </c>
+    <row r="71" spans="6:35" x14ac:dyDescent="0.2">
       <c r="Q71">
         <v>4</v>
       </c>
@@ -36095,11 +36266,11 @@
         <v>40</v>
       </c>
       <c r="S71" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="T71" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1600</v>
       </c>
       <c r="U71" s="23">
@@ -36129,9 +36300,20 @@
       </c>
       <c r="AF71" s="4"/>
     </row>
-    <row r="72" spans="8:35" x14ac:dyDescent="0.2">
-      <c r="L72">
-        <v>1425</v>
+    <row r="72" spans="6:35" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>9000000</v>
+      </c>
+      <c r="H72" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I72">
+        <f>G72*H72</f>
+        <v>630000.00000000012</v>
+      </c>
+      <c r="J72">
+        <f>I57-I72</f>
+        <v>280000</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -36140,11 +36322,11 @@
         <v>15</v>
       </c>
       <c r="S72" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="T72" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>675</v>
       </c>
       <c r="U72" s="23">
@@ -36173,9 +36355,20 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="73" spans="8:35" x14ac:dyDescent="0.2">
-      <c r="L73">
-        <v>0</v>
+    <row r="73" spans="6:35" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>9000000</v>
+      </c>
+      <c r="H73" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73" si="14">G73*H73</f>
+        <v>585000</v>
+      </c>
+      <c r="J73">
+        <f>I72-I73</f>
+        <v>45000.000000000116</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -36184,11 +36377,11 @@
         <v>50</v>
       </c>
       <c r="S73" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="T73" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1500</v>
       </c>
       <c r="U73" s="23">
@@ -36210,7 +36403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:35" x14ac:dyDescent="0.2">
       <c r="Q74">
         <v>4</v>
       </c>
@@ -36218,11 +36411,11 @@
         <v>10</v>
       </c>
       <c r="S74" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="T74" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="U74" s="23">
@@ -36244,13 +36437,24 @@
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="75" spans="8:35" x14ac:dyDescent="0.2">
-      <c r="L75">
-        <v>1800</v>
-      </c>
-      <c r="M75">
-        <f>L75+L76+L77</f>
-        <v>2430</v>
+    <row r="75" spans="6:35" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>15500000</v>
+      </c>
+      <c r="H75">
+        <f>I72</f>
+        <v>630000.00000000012</v>
+      </c>
+      <c r="I75">
+        <f>G75+H75+165000+100000</f>
+        <v>16395000</v>
+      </c>
+      <c r="J75">
+        <f>I75-G72</f>
+        <v>7395000</v>
+      </c>
+      <c r="K75" t="s">
+        <v>951</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -36259,11 +36463,11 @@
         <v>15</v>
       </c>
       <c r="S75" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="T75" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="U75" s="23">
@@ -36296,11 +36500,15 @@
       </c>
       <c r="AF75" s="6"/>
     </row>
-    <row r="76" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:35" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>952</v>
+      </c>
+      <c r="G76">
+        <f>G75-G72</f>
+        <v>6500000</v>
+      </c>
       <c r="H76" s="12"/>
-      <c r="L76">
-        <v>405</v>
-      </c>
       <c r="AA76" t="s">
         <v>122</v>
       </c>
@@ -36309,10 +36517,7 @@
         <v>506000</v>
       </c>
     </row>
-    <row r="77" spans="8:35" x14ac:dyDescent="0.2">
-      <c r="L77">
-        <v>225</v>
-      </c>
+    <row r="77" spans="6:35" x14ac:dyDescent="0.2">
       <c r="V77" s="6">
         <v>0.35</v>
       </c>
@@ -36327,7 +36532,7 @@
       </c>
       <c r="AF77" s="6"/>
     </row>
-    <row r="78" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:35" x14ac:dyDescent="0.2">
       <c r="U78" s="5">
         <v>45352</v>
       </c>
@@ -36346,7 +36551,7 @@
       </c>
       <c r="AF78" s="4"/>
     </row>
-    <row r="79" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:35" x14ac:dyDescent="0.2">
       <c r="U79" s="5">
         <v>45717</v>
       </c>
@@ -36371,7 +36576,7 @@
       </c>
       <c r="AF79" s="3"/>
     </row>
-    <row r="80" spans="8:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:35" x14ac:dyDescent="0.2">
       <c r="U80" s="5">
         <v>46082</v>
       </c>
@@ -41256,7 +41461,7 @@
   <dimension ref="A1:AQ46"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43356,7 +43561,7 @@
       </c>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C2">
@@ -43372,7 +43577,7 @@
       <c r="H2">
         <v>172000</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="P2">
@@ -43385,7 +43590,7 @@
       <c r="S2">
         <v>172000</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="X2">
@@ -43409,7 +43614,7 @@
       <c r="AC2">
         <v>172000</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="AI2" s="18">
@@ -43432,7 +43637,7 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3">
         <v>-6.4</v>
       </c>
@@ -43442,7 +43647,7 @@
       <c r="H3">
         <v>66000</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="35"/>
       <c r="N3">
         <v>20.2</v>
       </c>
@@ -43452,7 +43657,7 @@
       <c r="S3">
         <v>142000</v>
       </c>
-      <c r="W3" s="32"/>
+      <c r="W3" s="35"/>
       <c r="X3">
         <v>464</v>
       </c>
@@ -43466,7 +43671,7 @@
       <c r="AC3">
         <v>65000</v>
       </c>
-      <c r="AG3" s="32"/>
+      <c r="AG3" s="35"/>
       <c r="AI3" s="18">
         <f t="shared" ref="AI3:AI26" si="1">AH3*100/AI$1</f>
         <v>0</v>
@@ -43479,7 +43684,7 @@
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4">
         <v>36.9</v>
       </c>
@@ -43490,7 +43695,7 @@
         <f>D25</f>
         <v>306390</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="35"/>
       <c r="N4">
         <v>22.4</v>
       </c>
@@ -43501,7 +43706,7 @@
         <f>O28</f>
         <v>115265</v>
       </c>
-      <c r="W4" s="32"/>
+      <c r="W4" s="35"/>
       <c r="X4">
         <v>28163</v>
       </c>
@@ -43516,7 +43721,7 @@
         <f>X29</f>
         <v>223513</v>
       </c>
-      <c r="AG4" s="32"/>
+      <c r="AG4" s="35"/>
       <c r="AI4" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -43530,7 +43735,7 @@
       </c>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5">
         <v>4.8</v>
       </c>
@@ -43540,7 +43745,7 @@
       <c r="H5">
         <v>58000</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="35"/>
       <c r="N5">
         <v>10.8</v>
       </c>
@@ -43550,7 +43755,7 @@
       <c r="S5">
         <v>65000</v>
       </c>
-      <c r="W5" s="32"/>
+      <c r="W5" s="35"/>
       <c r="X5">
         <v>11852</v>
       </c>
@@ -43571,7 +43776,7 @@
         <f>AC4+AC5</f>
         <v>297513</v>
       </c>
-      <c r="AG5" s="32"/>
+      <c r="AG5" s="35"/>
       <c r="AH5">
         <v>11900</v>
       </c>
@@ -43587,7 +43792,7 @@
       </c>
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C6">
@@ -43604,7 +43809,7 @@
         <f>SUM(H2:H5)</f>
         <v>602390</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="35"/>
       <c r="N6">
         <v>24.7</v>
       </c>
@@ -43615,7 +43820,7 @@
         <f>SUM(S2:S5)</f>
         <v>494265</v>
       </c>
-      <c r="W6" s="32"/>
+      <c r="W6" s="35"/>
       <c r="X6">
         <v>12264</v>
       </c>
@@ -43630,7 +43835,7 @@
         <f>SUM(AC2:AC5)</f>
         <v>534513</v>
       </c>
-      <c r="AG6" s="32"/>
+      <c r="AG6" s="35"/>
       <c r="AH6">
         <v>-57123</v>
       </c>
@@ -43653,11 +43858,11 @@
       </c>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7">
         <v>19.3</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="N7">
@@ -43667,7 +43872,7 @@
         <f>SUM(N7:N11)</f>
         <v>53.6</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="X7">
@@ -43692,7 +43897,7 @@
         <f>AC6+27438.7046</f>
         <v>561951.70460000006</v>
       </c>
-      <c r="AG7" s="32" t="s">
+      <c r="AG7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="AH7">
@@ -43719,15 +43924,15 @@
       </c>
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8">
         <v>22.2</v>
       </c>
-      <c r="M8" s="32"/>
+      <c r="M8" s="35"/>
       <c r="N8">
         <v>-6.8</v>
       </c>
-      <c r="W8" s="32"/>
+      <c r="W8" s="35"/>
       <c r="X8">
         <v>12514</v>
       </c>
@@ -43735,7 +43940,7 @@
         <f t="shared" si="0"/>
         <v>7.8212500000000004E-2</v>
       </c>
-      <c r="AG8" s="32"/>
+      <c r="AG8" s="35"/>
       <c r="AH8">
         <v>13989</v>
       </c>
@@ -43746,16 +43951,16 @@
       <c r="AM8" s="4"/>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9">
         <v>10.8</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="35"/>
       <c r="N9">
         <v>23.2</v>
       </c>
       <c r="S9" s="11"/>
-      <c r="W9" s="32"/>
+      <c r="W9" s="35"/>
       <c r="X9">
         <v>20811</v>
       </c>
@@ -43764,7 +43969,7 @@
         <v>0.13006875000000001</v>
       </c>
       <c r="AC9" s="11"/>
-      <c r="AG9" s="32"/>
+      <c r="AG9" s="35"/>
       <c r="AH9">
         <v>23989</v>
       </c>
@@ -43775,7 +43980,7 @@
       <c r="AM9" s="11"/>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C10">
@@ -43785,11 +43990,11 @@
         <f>SUM(C10:C13)</f>
         <v>64.599999999999994</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="35"/>
       <c r="N10">
         <v>17.100000000000001</v>
       </c>
-      <c r="W10" s="32"/>
+      <c r="W10" s="35"/>
       <c r="X10">
         <v>13577</v>
       </c>
@@ -43797,7 +44002,7 @@
         <f t="shared" si="0"/>
         <v>8.4856249999999994E-2</v>
       </c>
-      <c r="AG10" s="32"/>
+      <c r="AG10" s="35"/>
       <c r="AH10">
         <v>12000</v>
       </c>
@@ -43807,15 +44012,15 @@
       </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11">
         <v>0.8</v>
       </c>
-      <c r="M11" s="32"/>
+      <c r="M11" s="35"/>
       <c r="N11">
         <v>12</v>
       </c>
-      <c r="W11" s="32"/>
+      <c r="W11" s="35"/>
       <c r="X11">
         <v>1412</v>
       </c>
@@ -43823,7 +44028,7 @@
         <f t="shared" si="0"/>
         <v>8.8249999999999995E-3</v>
       </c>
-      <c r="AG11" s="32"/>
+      <c r="AG11" s="35"/>
       <c r="AH11">
         <v>13391</v>
       </c>
@@ -43833,11 +44038,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12">
         <v>28.1</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="N12">
@@ -43847,7 +44052,7 @@
         <f>SUM(N12:N16)</f>
         <v>62.6</v>
       </c>
-      <c r="W12" s="32" t="s">
+      <c r="W12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="X12">
@@ -43865,7 +44070,7 @@
         <f>Z12*100/Y1</f>
         <v>0.16537499999999999</v>
       </c>
-      <c r="AG12" s="32" t="s">
+      <c r="AG12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AH12">
@@ -43885,15 +44090,15 @@
       </c>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13">
         <v>11.5</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M13" s="35"/>
       <c r="N13">
         <v>13</v>
       </c>
-      <c r="W13" s="32"/>
+      <c r="W13" s="35"/>
       <c r="X13">
         <v>9637</v>
       </c>
@@ -43901,7 +44106,7 @@
         <f t="shared" si="0"/>
         <v>6.023125E-2</v>
       </c>
-      <c r="AG13" s="32"/>
+      <c r="AG13" s="35"/>
       <c r="AH13">
         <v>-2716</v>
       </c>
@@ -43911,7 +44116,7 @@
       </c>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C14">
@@ -43921,11 +44126,11 @@
         <f>SUM(C14:C18)</f>
         <v>65.5</v>
       </c>
-      <c r="M14" s="32"/>
+      <c r="M14" s="35"/>
       <c r="N14">
         <v>4.8</v>
       </c>
-      <c r="W14" s="32"/>
+      <c r="W14" s="35"/>
       <c r="X14">
         <v>6542</v>
       </c>
@@ -43933,7 +44138,7 @@
         <f t="shared" si="0"/>
         <v>4.08875E-2</v>
       </c>
-      <c r="AG14" s="32"/>
+      <c r="AG14" s="35"/>
       <c r="AH14">
         <v>-37463</v>
       </c>
@@ -43943,15 +44148,15 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15">
         <v>43.6</v>
       </c>
-      <c r="M15" s="32"/>
+      <c r="M15" s="35"/>
       <c r="N15">
         <v>10.9</v>
       </c>
-      <c r="W15" s="32"/>
+      <c r="W15" s="35"/>
       <c r="X15">
         <v>8408</v>
       </c>
@@ -43959,7 +44164,7 @@
         <f t="shared" si="0"/>
         <v>5.2549999999999999E-2</v>
       </c>
-      <c r="AG15" s="32"/>
+      <c r="AG15" s="35"/>
       <c r="AH15">
         <v>12412</v>
       </c>
@@ -43969,15 +44174,15 @@
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16">
         <v>-4.2</v>
       </c>
-      <c r="M16" s="32"/>
+      <c r="M16" s="35"/>
       <c r="N16">
         <v>26.4</v>
       </c>
-      <c r="W16" s="32"/>
+      <c r="W16" s="35"/>
       <c r="X16">
         <v>-6006</v>
       </c>
@@ -43985,7 +44190,7 @@
         <f t="shared" si="0"/>
         <v>-3.7537500000000001E-2</v>
       </c>
-      <c r="AG16" s="32"/>
+      <c r="AG16" s="35"/>
       <c r="AH16">
         <v>10060</v>
       </c>
@@ -43995,11 +44200,11 @@
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="35" t="s">
         <v>20</v>
       </c>
       <c r="N17">
@@ -44009,7 +44214,7 @@
         <f>SUM(N17:N21)</f>
         <v>-90.300000000000011</v>
       </c>
-      <c r="W17" s="32" t="s">
+      <c r="W17" s="35" t="s">
         <v>20</v>
       </c>
       <c r="Y17" s="18">
@@ -44024,7 +44229,7 @@
         <f>Z17*100/Y1</f>
         <v>0.53224375000000002</v>
       </c>
-      <c r="AG17" s="32" t="s">
+      <c r="AG17" s="35" t="s">
         <v>20</v>
       </c>
       <c r="AH17">
@@ -44044,15 +44249,15 @@
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="C18">
         <v>13</v>
       </c>
-      <c r="M18" s="32"/>
+      <c r="M18" s="35"/>
       <c r="N18">
         <v>-4</v>
       </c>
-      <c r="W18" s="32"/>
+      <c r="W18" s="35"/>
       <c r="X18">
         <v>16136</v>
       </c>
@@ -44060,7 +44265,7 @@
         <f t="shared" si="0"/>
         <v>0.10085</v>
       </c>
-      <c r="AG18" s="32"/>
+      <c r="AG18" s="35"/>
       <c r="AH18">
         <v>5687</v>
       </c>
@@ -44070,7 +44275,7 @@
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C19">
@@ -44080,16 +44285,16 @@
         <f>SUM(C19:C23)</f>
         <v>62</v>
       </c>
-      <c r="M19" s="32"/>
+      <c r="M19" s="35"/>
       <c r="N19">
         <v>16.3</v>
       </c>
-      <c r="W19" s="32"/>
+      <c r="W19" s="35"/>
       <c r="Y19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="32"/>
+      <c r="AG19" s="35"/>
       <c r="AH19">
         <v>21733</v>
       </c>
@@ -44099,15 +44304,15 @@
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20">
         <v>30.1</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="35"/>
       <c r="N20">
         <v>15.6</v>
       </c>
-      <c r="W20" s="32"/>
+      <c r="W20" s="35"/>
       <c r="X20">
         <v>49619</v>
       </c>
@@ -44115,7 +44320,7 @@
         <f t="shared" si="0"/>
         <v>0.31011875</v>
       </c>
-      <c r="AG20" s="32"/>
+      <c r="AG20" s="35"/>
       <c r="AH20">
         <f>17976+3580</f>
         <v>21556</v>
@@ -44126,9 +44331,9 @@
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="W21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="W21" s="35"/>
       <c r="X21">
         <v>19404</v>
       </c>
@@ -44136,7 +44341,7 @@
         <f t="shared" si="0"/>
         <v>0.12127499999999999</v>
       </c>
-      <c r="AG21" s="32"/>
+      <c r="AG21" s="35"/>
       <c r="AH21">
         <v>10789</v>
       </c>
@@ -44146,11 +44351,11 @@
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22">
         <v>22.9</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="35" t="s">
         <v>21</v>
       </c>
       <c r="N22">
@@ -44160,7 +44365,7 @@
         <f>SUM(N22:N26)</f>
         <v>11.2</v>
       </c>
-      <c r="W22" s="32" t="s">
+      <c r="W22" s="35" t="s">
         <v>21</v>
       </c>
       <c r="Y22" s="18">
@@ -44175,7 +44380,7 @@
         <f>Z22*100/Y1</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="32" t="s">
+      <c r="AG22" s="35" t="s">
         <v>21</v>
       </c>
       <c r="AH22">
@@ -44195,17 +44400,17 @@
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="M23" s="35"/>
       <c r="N23">
         <v>21.2</v>
       </c>
-      <c r="W23" s="32"/>
+      <c r="W23" s="35"/>
       <c r="Y23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="32"/>
+      <c r="AG23" s="35"/>
       <c r="AH23">
         <v>9722</v>
       </c>
@@ -44218,13 +44423,13 @@
       <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="W24" s="32"/>
+      <c r="M24" s="35"/>
+      <c r="W24" s="35"/>
       <c r="Y24" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="32"/>
+      <c r="AG24" s="35"/>
       <c r="AH24">
         <v>-2685</v>
       </c>
@@ -44242,13 +44447,13 @@
         <f>283591+26881-4082</f>
         <v>306390</v>
       </c>
-      <c r="M25" s="32"/>
-      <c r="W25" s="32"/>
+      <c r="M25" s="35"/>
+      <c r="W25" s="35"/>
       <c r="Y25" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="32"/>
+      <c r="AG25" s="35"/>
       <c r="AH25">
         <f>27071+14672-7637-3380</f>
         <v>30726</v>
@@ -44259,13 +44464,13 @@
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="M26" s="32"/>
-      <c r="W26" s="32"/>
+      <c r="M26" s="35"/>
+      <c r="W26" s="35"/>
       <c r="Y26" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="32"/>
+      <c r="AG26" s="35"/>
       <c r="AI26" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -44319,7 +44524,7 @@
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="11">
@@ -44361,7 +44566,7 @@
       <c r="AI30" s="18"/>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="33"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="11">
         <v>-1.5</v>
       </c>
@@ -44401,7 +44606,7 @@
       <c r="AI31" s="18"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B32" s="33"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="11">
         <v>19.7</v>
       </c>
@@ -44415,7 +44620,7 @@
         <f>D58</f>
         <v>178876</v>
       </c>
-      <c r="M32" s="32" t="s">
+      <c r="M32" s="35" t="s">
         <v>17</v>
       </c>
       <c r="O32" s="18">
@@ -44438,7 +44643,7 @@
       </c>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B33" s="33"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="11">
         <v>18.100000000000001</v>
       </c>
@@ -44451,7 +44656,7 @@
       <c r="H33">
         <v>60000</v>
       </c>
-      <c r="M33" s="32"/>
+      <c r="M33" s="35"/>
       <c r="O33" s="18">
         <f t="shared" ref="O33:O56" si="2">N33*100000/$O$31</f>
         <v>0</v>
@@ -44476,7 +44681,7 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="33"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="11">
         <v>-0.3</v>
       </c>
@@ -44490,7 +44695,7 @@
         <f>SUM(H30:H33)</f>
         <v>475876</v>
       </c>
-      <c r="M34" s="32"/>
+      <c r="M34" s="35"/>
       <c r="N34">
         <v>27.4</v>
       </c>
@@ -44504,7 +44709,7 @@
       <c r="S34">
         <v>197885</v>
       </c>
-      <c r="W34" s="32" t="s">
+      <c r="W34" s="35" t="s">
         <v>17</v>
       </c>
       <c r="X34">
@@ -44528,7 +44733,7 @@
       <c r="AC34">
         <v>172000</v>
       </c>
-      <c r="AG34" s="32" t="s">
+      <c r="AG34" s="35" t="s">
         <v>17</v>
       </c>
       <c r="AI34" s="18">
@@ -44551,14 +44756,14 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="11">
         <v>4.0999999999999996</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="M35" s="32"/>
+      <c r="M35" s="35"/>
       <c r="N35">
         <v>14</v>
       </c>
@@ -44579,7 +44784,7 @@
         <f>S34+S35</f>
         <v>265885</v>
       </c>
-      <c r="W35" s="32"/>
+      <c r="W35" s="35"/>
       <c r="X35">
         <v>7908</v>
       </c>
@@ -44593,7 +44798,7 @@
       <c r="AC35">
         <v>135000</v>
       </c>
-      <c r="AG35" s="32"/>
+      <c r="AG35" s="35"/>
       <c r="AI35" s="18">
         <f t="shared" ref="AI35:AI58" si="4">AH35*100/AI$33</f>
         <v>0</v>
@@ -44606,7 +44811,7 @@
       </c>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="11">
@@ -44618,7 +44823,7 @@
         <v>48.900000000000006</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="M36" s="32"/>
+      <c r="M36" s="35"/>
       <c r="N36">
         <v>16.600000000000001</v>
       </c>
@@ -44633,7 +44838,7 @@
         <f>SUM(S32:S35)</f>
         <v>502885</v>
       </c>
-      <c r="W36" s="32"/>
+      <c r="W36" s="35"/>
       <c r="X36">
         <v>25034</v>
       </c>
@@ -44648,7 +44853,7 @@
         <f>X61</f>
         <v>177202</v>
       </c>
-      <c r="AG36" s="32"/>
+      <c r="AG36" s="35"/>
       <c r="AI36" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -44662,7 +44867,7 @@
       </c>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B37" s="33"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="11">
         <v>3.7</v>
       </c>
@@ -44671,7 +44876,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="M37" s="32" t="s">
+      <c r="M37" s="35" t="s">
         <v>18</v>
       </c>
       <c r="N37">
@@ -44689,7 +44894,7 @@
         <f>P37*100000/$O$31</f>
         <v>0.27714285714285714</v>
       </c>
-      <c r="W37" s="32"/>
+      <c r="W37" s="35"/>
       <c r="X37">
         <v>12191</v>
       </c>
@@ -44710,7 +44915,7 @@
         <f>AC36+AC37</f>
         <v>253202</v>
       </c>
-      <c r="AG37" s="32"/>
+      <c r="AG37" s="35"/>
       <c r="AI37" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -44723,7 +44928,7 @@
       </c>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B38" s="33"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="11">
         <v>-6.2</v>
       </c>
@@ -44732,7 +44937,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="M38" s="32"/>
+      <c r="M38" s="35"/>
       <c r="N38">
         <v>-0.9</v>
       </c>
@@ -44740,7 +44945,7 @@
         <f t="shared" si="2"/>
         <v>-6.4285714285714285E-3</v>
       </c>
-      <c r="W38" s="32"/>
+      <c r="W38" s="35"/>
       <c r="X38">
         <v>7628</v>
       </c>
@@ -44755,7 +44960,7 @@
         <f>SUM(AC34:AC37)</f>
         <v>560202</v>
       </c>
-      <c r="AG38" s="32"/>
+      <c r="AG38" s="35"/>
       <c r="AH38">
         <v>6664</v>
       </c>
@@ -44778,7 +44983,7 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="33"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="11">
         <v>20.100000000000001</v>
       </c>
@@ -44787,7 +44992,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="M39" s="32"/>
+      <c r="M39" s="35"/>
       <c r="N39">
         <v>21.3</v>
       </c>
@@ -44796,7 +45001,7 @@
         <v>0.15214285714285714</v>
       </c>
       <c r="S39" s="11"/>
-      <c r="W39" s="32" t="s">
+      <c r="W39" s="35" t="s">
         <v>18</v>
       </c>
       <c r="X39">
@@ -44821,7 +45026,7 @@
         <f>AC38+9045.170863</f>
         <v>569247.17086299998</v>
       </c>
-      <c r="AG39" s="32" t="s">
+      <c r="AG39" s="35" t="s">
         <v>18</v>
       </c>
       <c r="AI39" s="18">
@@ -44845,14 +45050,14 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="33"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="11">
         <v>20.399999999999999</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="M40" s="32"/>
+      <c r="M40" s="35"/>
       <c r="N40">
         <v>10.199999999999999</v>
       </c>
@@ -44860,7 +45065,7 @@
         <f t="shared" si="2"/>
         <v>7.2857142857142843E-2</v>
       </c>
-      <c r="W40" s="32"/>
+      <c r="W40" s="35"/>
       <c r="X40">
         <v>-33678</v>
       </c>
@@ -44868,7 +45073,7 @@
         <f t="shared" si="3"/>
         <v>-0.19810588235294119</v>
       </c>
-      <c r="AG40" s="32"/>
+      <c r="AG40" s="35"/>
       <c r="AH40">
         <v>21305</v>
       </c>
@@ -44878,7 +45083,7 @@
       </c>
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="11">
@@ -44890,7 +45095,7 @@
         <v>73.8</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="M41" s="32"/>
+      <c r="M41" s="35"/>
       <c r="N41">
         <v>7.3</v>
       </c>
@@ -44898,7 +45103,7 @@
         <f t="shared" si="2"/>
         <v>5.2142857142857144E-2</v>
       </c>
-      <c r="W41" s="32"/>
+      <c r="W41" s="35"/>
       <c r="X41">
         <v>15143</v>
       </c>
@@ -44907,7 +45112,7 @@
         <v>8.9076470588235299E-2</v>
       </c>
       <c r="AC41" s="11"/>
-      <c r="AG41" s="32"/>
+      <c r="AG41" s="35"/>
       <c r="AH41">
         <v>12952</v>
       </c>
@@ -44918,12 +45123,12 @@
       <c r="AM41" s="11"/>
     </row>
     <row r="42" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B42" s="33"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="M42" s="32" t="s">
+      <c r="M42" s="35" t="s">
         <v>19</v>
       </c>
       <c r="N42">
@@ -44941,7 +45146,7 @@
         <f>P42*100000/$O$31</f>
         <v>0.34357142857142858</v>
       </c>
-      <c r="W42" s="32"/>
+      <c r="W42" s="35"/>
       <c r="X42">
         <v>6921</v>
       </c>
@@ -44949,7 +45154,7 @@
         <f t="shared" si="3"/>
         <v>4.071176470588235E-2</v>
       </c>
-      <c r="AG42" s="32"/>
+      <c r="AG42" s="35"/>
       <c r="AH42">
         <v>13077</v>
       </c>
@@ -44959,18 +45164,18 @@
       </c>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B43" s="33"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="11">
         <v>34</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="M43" s="32"/>
+      <c r="M43" s="35"/>
       <c r="O43" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W43" s="32"/>
+      <c r="W43" s="35"/>
       <c r="X43">
         <v>1053</v>
       </c>
@@ -44978,21 +45183,21 @@
         <f t="shared" si="3"/>
         <v>6.1941176470588239E-3</v>
       </c>
-      <c r="AG43" s="32"/>
+      <c r="AG43" s="35"/>
       <c r="AI43" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B44" s="33"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="11">
         <v>13.2</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="M44" s="32"/>
+      <c r="M44" s="35"/>
       <c r="N44">
         <v>19.2</v>
       </c>
@@ -45000,7 +45205,7 @@
         <f t="shared" si="2"/>
         <v>0.13714285714285715</v>
       </c>
-      <c r="W44" s="32" t="s">
+      <c r="W44" s="35" t="s">
         <v>19</v>
       </c>
       <c r="X44">
@@ -45018,7 +45223,7 @@
         <f>Z44*100/Y33</f>
         <v>0.15638823529411763</v>
       </c>
-      <c r="AG44" s="32" t="s">
+      <c r="AG44" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AH44">
@@ -45038,14 +45243,14 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="33"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="11">
         <v>8.1</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="M45" s="32"/>
+      <c r="M45" s="35"/>
       <c r="N45">
         <v>-1.9</v>
       </c>
@@ -45053,7 +45258,7 @@
         <f t="shared" si="2"/>
         <v>-1.3571428571428571E-2</v>
       </c>
-      <c r="W45" s="32"/>
+      <c r="W45" s="35"/>
       <c r="X45">
         <v>13430</v>
       </c>
@@ -45061,7 +45266,7 @@
         <f t="shared" si="3"/>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AG45" s="32"/>
+      <c r="AG45" s="35"/>
       <c r="AH45">
         <v>229</v>
       </c>
@@ -45071,7 +45276,7 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="11">
@@ -45085,7 +45290,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
-      <c r="M46" s="32"/>
+      <c r="M46" s="35"/>
       <c r="N46">
         <v>22.3</v>
       </c>
@@ -45093,7 +45298,7 @@
         <f t="shared" si="2"/>
         <v>0.15928571428571428</v>
       </c>
-      <c r="W46" s="32"/>
+      <c r="W46" s="35"/>
       <c r="X46">
         <v>-13924</v>
       </c>
@@ -45101,7 +45306,7 @@
         <f t="shared" si="3"/>
         <v>-8.1905882352941176E-2</v>
       </c>
-      <c r="AG46" s="32"/>
+      <c r="AG46" s="35"/>
       <c r="AH46">
         <v>19551</v>
       </c>
@@ -45111,7 +45316,7 @@
       </c>
     </row>
     <row r="47" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B47" s="33"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="11">
         <v>29.2</v>
       </c>
@@ -45120,7 +45325,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="M47" s="32" t="s">
+      <c r="M47" s="35" t="s">
         <v>20</v>
       </c>
       <c r="N47">
@@ -45138,7 +45343,7 @@
         <f>P47*100000/$O$31</f>
         <v>0.37571428571428578</v>
       </c>
-      <c r="W47" s="32"/>
+      <c r="W47" s="35"/>
       <c r="X47">
         <v>15018</v>
       </c>
@@ -45146,7 +45351,7 @@
         <f t="shared" si="3"/>
         <v>8.8341176470588229E-2</v>
       </c>
-      <c r="AG47" s="32"/>
+      <c r="AG47" s="35"/>
       <c r="AH47">
         <v>16372</v>
       </c>
@@ -45156,7 +45361,7 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="33"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="11">
         <v>6.4</v>
       </c>
@@ -45165,7 +45370,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="35"/>
       <c r="N48">
         <v>16.3</v>
       </c>
@@ -45173,7 +45378,7 @@
         <f t="shared" si="2"/>
         <v>0.11642857142857142</v>
       </c>
-      <c r="W48" s="32"/>
+      <c r="W48" s="35"/>
       <c r="X48">
         <v>13405</v>
       </c>
@@ -45181,7 +45386,7 @@
         <f t="shared" si="3"/>
         <v>7.8852941176470584E-2</v>
       </c>
-      <c r="AG48" s="32"/>
+      <c r="AG48" s="35"/>
       <c r="AH48">
         <v>9432</v>
       </c>
@@ -45191,7 +45396,7 @@
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B49" s="33"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="11">
         <v>37</v>
       </c>
@@ -45200,7 +45405,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="M49" s="32"/>
+      <c r="M49" s="35"/>
       <c r="N49">
         <v>11.3</v>
       </c>
@@ -45208,7 +45413,7 @@
         <f t="shared" si="2"/>
         <v>8.0714285714285711E-2</v>
       </c>
-      <c r="W49" s="32" t="s">
+      <c r="W49" s="35" t="s">
         <v>20</v>
       </c>
       <c r="X49">
@@ -45226,7 +45431,7 @@
         <f>Z49*100/Y33</f>
         <v>0.32051176470588233</v>
       </c>
-      <c r="AG49" s="32" t="s">
+      <c r="AG49" s="35" t="s">
         <v>20</v>
       </c>
       <c r="AH49">
@@ -45246,7 +45451,7 @@
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B50" s="33"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="11">
         <v>4</v>
       </c>
@@ -45255,7 +45460,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
-      <c r="M50" s="32"/>
+      <c r="M50" s="35"/>
       <c r="N50">
         <v>7.6</v>
       </c>
@@ -45263,7 +45468,7 @@
         <f t="shared" si="2"/>
         <v>5.4285714285714284E-2</v>
       </c>
-      <c r="W50" s="32"/>
+      <c r="W50" s="35"/>
       <c r="X50">
         <v>-714</v>
       </c>
@@ -45271,7 +45476,7 @@
         <f t="shared" si="3"/>
         <v>-4.1999999999999997E-3</v>
       </c>
-      <c r="AG50" s="32"/>
+      <c r="AG50" s="35"/>
       <c r="AH50">
         <v>13468</v>
       </c>
@@ -45281,7 +45486,7 @@
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B51" s="33"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="11">
         <v>9.8000000000000007</v>
       </c>
@@ -45290,7 +45495,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
-      <c r="M51" s="32"/>
+      <c r="M51" s="35"/>
       <c r="N51">
         <v>11.6</v>
       </c>
@@ -45298,7 +45503,7 @@
         <f t="shared" si="2"/>
         <v>8.2857142857142851E-2</v>
       </c>
-      <c r="W51" s="32"/>
+      <c r="W51" s="35"/>
       <c r="X51">
         <v>-450</v>
       </c>
@@ -45306,7 +45511,7 @@
         <f t="shared" si="3"/>
         <v>-2.6470588235294116E-3</v>
       </c>
-      <c r="AG51" s="32"/>
+      <c r="AG51" s="35"/>
       <c r="AH51">
         <v>9439</v>
       </c>
@@ -45316,7 +45521,7 @@
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="11"/>
@@ -45328,7 +45533,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
-      <c r="M52" s="32" t="s">
+      <c r="M52" s="35" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="18">
@@ -45343,7 +45548,7 @@
         <f>P52*100000/$O$31</f>
         <v>0</v>
       </c>
-      <c r="W52" s="32"/>
+      <c r="W52" s="35"/>
       <c r="X52">
         <v>51238</v>
       </c>
@@ -45351,7 +45556,7 @@
         <f t="shared" si="3"/>
         <v>0.3014</v>
       </c>
-      <c r="AG52" s="32"/>
+      <c r="AG52" s="35"/>
       <c r="AH52">
         <v>23888</v>
       </c>
@@ -45361,24 +45566,24 @@
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B53" s="33"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
-      <c r="M53" s="32"/>
+      <c r="M53" s="35"/>
       <c r="O53" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W53" s="32"/>
+      <c r="W53" s="35"/>
       <c r="Y53" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="32"/>
+      <c r="AG53" s="35"/>
       <c r="AH53">
         <v>7555</v>
       </c>
@@ -45388,19 +45593,19 @@
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B54" s="33"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
-      <c r="M54" s="32"/>
+      <c r="M54" s="35"/>
       <c r="O54" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W54" s="32" t="s">
+      <c r="W54" s="35" t="s">
         <v>21</v>
       </c>
       <c r="X54">
@@ -45418,7 +45623,7 @@
         <f>Z54*100/Y33</f>
         <v>0.25279411764705884</v>
       </c>
-      <c r="AG54" s="32" t="s">
+      <c r="AG54" s="35" t="s">
         <v>21</v>
       </c>
       <c r="AI54" s="18">
@@ -45435,19 +45640,19 @@
       </c>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B55" s="33"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-      <c r="M55" s="32"/>
+      <c r="M55" s="35"/>
       <c r="O55" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W55" s="32"/>
+      <c r="W55" s="35"/>
       <c r="X55">
         <v>21835</v>
       </c>
@@ -45455,7 +45660,7 @@
         <f t="shared" si="3"/>
         <v>0.12844117647058823</v>
       </c>
-      <c r="AG55" s="32"/>
+      <c r="AG55" s="35"/>
       <c r="AH55">
         <v>14479</v>
       </c>
@@ -45465,19 +45670,19 @@
       </c>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B56" s="33"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="M56" s="32"/>
+      <c r="M56" s="35"/>
       <c r="O56" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W56" s="32"/>
+      <c r="W56" s="35"/>
       <c r="X56">
         <v>12411</v>
       </c>
@@ -45485,7 +45690,7 @@
         <f t="shared" si="3"/>
         <v>7.300588235294117E-2</v>
       </c>
-      <c r="AG56" s="32"/>
+      <c r="AG56" s="35"/>
       <c r="AH56">
         <v>9054</v>
       </c>
@@ -45510,12 +45715,12 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
-      <c r="W57" s="32"/>
+      <c r="W57" s="35"/>
       <c r="Y57" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG57" s="32"/>
+      <c r="AG57" s="35"/>
       <c r="AI57" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -45541,12 +45746,12 @@
       <c r="O58">
         <v>197885</v>
       </c>
-      <c r="W58" s="32"/>
+      <c r="W58" s="35"/>
       <c r="Y58" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG58" s="32"/>
+      <c r="AG58" s="35"/>
       <c r="AI58" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
